--- a/Insect labels/Box 1 Carabids/STEP1_Insect labels PNRCarabid1.xlsx
+++ b/Insect labels/Box 1 Carabids/STEP1_Insect labels PNRCarabid1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/Insect labels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/Insect labels/Box 1 Carabids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="774" documentId="13_ncr:1_{50A6FA0F-386B-43EE-B92F-A4D10F2CC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E4AF1B-CE40-4E8C-B1A6-6476F6DB0F18}"/>
+  <xr:revisionPtr revIDLastSave="778" documentId="13_ncr:1_{50A6FA0F-386B-43EE-B92F-A4D10F2CC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F6CC9D-FD77-4125-B0AF-065B3BC5A473}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="842" activeTab="2" xr2:uid="{9F7AD775-D155-4167-90FD-CA817BDAFCF1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="TrapsIntervals" sheetId="3" r:id="rId13"/>
     <sheet name="DatesDropdown" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
@@ -901,9 +901,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,10 +916,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,8 +1240,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="A1:J12"/>
+    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>
@@ -1366,7 +1359,7 @@
 2.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B2, CHAR(10), LookupGPS!B2, CHAR(10),Date!B2, " ", TrapType_Collectors!B17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1374,7 +1367,7 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C2" s="71" t="str">
+      <c r="C2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!C2, CHAR(10), LookupGPS!C2, CHAR(10),Date!C2, " ", TrapType_Collectors!C17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1382,7 +1375,7 @@
 1.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="D2" s="71" t="str">
+      <c r="D2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!D2, CHAR(10), LookupGPS!D2, CHAR(10),Date!D2, " ", TrapType_Collectors!D17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1390,7 +1383,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="E2" s="71" t="str">
+      <c r="E2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!E2, CHAR(10), LookupGPS!E2, CHAR(10),Date!E2, " ", TrapType_Collectors!E17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1398,7 +1391,7 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="F2" s="71" t="str">
+      <c r="F2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!F2, CHAR(10), LookupGPS!F2, CHAR(10),Date!F2, " ", TrapType_Collectors!F17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1406,7 +1399,7 @@
 29.vi - 13.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="G2" s="71" t="str">
+      <c r="G2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!G2, CHAR(10), LookupGPS!G2, CHAR(10),Date!G2, " ", TrapType_Collectors!G17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1414,7 +1407,7 @@
 29.vi - 13.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="H2" s="71" t="str">
+      <c r="H2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!H2, CHAR(10), LookupGPS!H2, CHAR(10),Date!H2, " ", TrapType_Collectors!H17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1422,7 +1415,7 @@
 11.viii - 23.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="I2" s="71" t="str">
+      <c r="I2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!I2, CHAR(10), LookupGPS!I2, CHAR(10),Date!I2, " ", TrapType_Collectors!I17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1430,7 +1423,7 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="J2" s="71" t="str">
+      <c r="J2" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J2, CHAR(10), LookupGPS!J2, CHAR(10),Date!J2, " ", TrapType_Collectors!J17)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1438,19 +1431,19 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K2" s="71" t="e">
+      <c r="K2" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K2, CHAR(10), LookupGPS!K2, CHAR(10),Date!K2, " ", TrapType_Collectors!K17)</f>
         <v>#N/A</v>
       </c>
-      <c r="L2" s="71" t="e">
+      <c r="L2" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L2, CHAR(10), LookupGPS!L2, CHAR(10),Date!L2, " ", TrapType_Collectors!L17)</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="71" t="e">
+      <c r="M2" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M2, CHAR(10), LookupGPS!M2, CHAR(10),Date!M2, " ", TrapType_Collectors!M17)</f>
         <v>#N/A</v>
       </c>
-      <c r="N2" s="71" t="e">
+      <c r="N2" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N2, CHAR(10), LookupGPS!N2, CHAR(10),Date!N2, " ", TrapType_Collectors!N17)</f>
         <v>#N/A</v>
       </c>
@@ -1468,7 +1461,7 @@
 1.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B3, CHAR(10), LookupGPS!B3, CHAR(10),Date!B3, " ", TrapType_Collectors!B18)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1476,7 +1469,7 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!C3, CHAR(10), LookupGPS!C3, CHAR(10),Date!C3, " ", TrapType_Collectors!C18)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1484,19 +1477,19 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="D3" s="71" t="e">
+      <c r="D3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D3, CHAR(10), LookupGPS!D3, CHAR(10),Date!D3, " ", TrapType_Collectors!D18)</f>
         <v>#N/A</v>
       </c>
-      <c r="E3" s="71" t="e">
+      <c r="E3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E3, CHAR(10), LookupGPS!E3, CHAR(10),Date!E3, " ", TrapType_Collectors!E18)</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="71" t="e">
+      <c r="F3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F3, CHAR(10), LookupGPS!F3, CHAR(10),Date!F3, " ", TrapType_Collectors!F18)</f>
         <v>#N/A</v>
       </c>
-      <c r="G3" s="71" t="str">
+      <c r="G3" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!G3, CHAR(10), LookupGPS!G3, CHAR(10),Date!G3, " ", TrapType_Collectors!G18)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1504,7 +1497,7 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="H3" s="71" t="str">
+      <c r="H3" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!H3, CHAR(10), LookupGPS!H3, CHAR(10),Date!H3, " ", TrapType_Collectors!H18)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1512,11 +1505,11 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="I3" s="71" t="e">
+      <c r="I3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I3, CHAR(10), LookupGPS!I3, CHAR(10),Date!I3, " ", TrapType_Collectors!I18)</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="71" t="str">
+      <c r="J3" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J3, CHAR(10), LookupGPS!J3, CHAR(10),Date!J3, " ", TrapType_Collectors!J18)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1524,19 +1517,19 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K3" s="71" t="e">
+      <c r="K3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K3, CHAR(10), LookupGPS!K3, CHAR(10),Date!K3, " ", TrapType_Collectors!K18)</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" s="71" t="e">
+      <c r="L3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L3, CHAR(10), LookupGPS!L3, CHAR(10),Date!L3, " ", TrapType_Collectors!L18)</f>
         <v>#N/A</v>
       </c>
-      <c r="M3" s="71" t="e">
+      <c r="M3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M3, CHAR(10), LookupGPS!M3, CHAR(10),Date!M3, " ", TrapType_Collectors!M18)</f>
         <v>#N/A</v>
       </c>
-      <c r="N3" s="71" t="e">
+      <c r="N3" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N3, CHAR(10), LookupGPS!N3, CHAR(10),Date!N3, " ", TrapType_Collectors!N18)</f>
         <v>#N/A</v>
       </c>
@@ -1554,7 +1547,7 @@
 29.vi - 13.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B4, CHAR(10), LookupGPS!B4, CHAR(10),Date!B4, " ", TrapType_Collectors!B19)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1562,7 +1555,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!C4, CHAR(10), LookupGPS!C4, CHAR(10),Date!C4, " ", TrapType_Collectors!C19)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1570,7 +1563,7 @@
 11.viii - 23.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="D4" s="71" t="str">
+      <c r="D4" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!D4, CHAR(10), LookupGPS!D4, CHAR(10),Date!D4, " ", TrapType_Collectors!D19)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1578,7 +1571,7 @@
 2.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="E4" s="71" t="str">
+      <c r="E4" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!E4, CHAR(10), LookupGPS!E4, CHAR(10),Date!E4, " ", TrapType_Collectors!E19)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1586,7 +1579,7 @@
 2.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!F4, CHAR(10), LookupGPS!F4, CHAR(10),Date!F4, " ", TrapType_Collectors!F19)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1594,19 +1587,19 @@
 2.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="G4" s="71" t="e">
+      <c r="G4" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G4, CHAR(10), LookupGPS!G4, CHAR(10),Date!G4, " ", TrapType_Collectors!G19)</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="71" t="e">
+      <c r="H4" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H4, CHAR(10), LookupGPS!H4, CHAR(10),Date!H4, " ", TrapType_Collectors!H19)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="71" t="e">
+      <c r="I4" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I4, CHAR(10), LookupGPS!I4, CHAR(10),Date!I4, " ", TrapType_Collectors!I19)</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="71" t="str">
+      <c r="J4" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J4, CHAR(10), LookupGPS!J4, CHAR(10),Date!J4, " ", TrapType_Collectors!J19)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1614,19 +1607,19 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K4" s="71" t="e">
+      <c r="K4" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K4, CHAR(10), LookupGPS!K4, CHAR(10),Date!K4, " ", TrapType_Collectors!K19)</f>
         <v>#N/A</v>
       </c>
-      <c r="L4" s="71" t="e">
+      <c r="L4" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L4, CHAR(10), LookupGPS!L4, CHAR(10),Date!L4, " ", TrapType_Collectors!L19)</f>
         <v>#N/A</v>
       </c>
-      <c r="M4" s="71" t="e">
+      <c r="M4" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M4, CHAR(10), LookupGPS!M4, CHAR(10),Date!M4, " ", TrapType_Collectors!M19)</f>
         <v>#N/A</v>
       </c>
-      <c r="N4" s="71" t="e">
+      <c r="N4" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N4, CHAR(10), LookupGPS!N4, CHAR(10),Date!N4, " ", TrapType_Collectors!N19)</f>
         <v>#N/A</v>
       </c>
@@ -1640,15 +1633,15 @@
         <f>CONCATENATE(CountryStateCountySite!A5, CHAR(10), LookupGPS!A5, CHAR(10),Date!A5, " ", TrapType_Collectors!A20)</f>
         <v>#N/A</v>
       </c>
-      <c r="B5" s="71" t="e">
+      <c r="B5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B5, CHAR(10), LookupGPS!B5, CHAR(10),Date!B5, " ", TrapType_Collectors!B20)</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="71" t="e">
+      <c r="C5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C5, CHAR(10), LookupGPS!C5, CHAR(10),Date!C5, " ", TrapType_Collectors!C20)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="71" t="str">
+      <c r="D5" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!D5, CHAR(10), LookupGPS!D5, CHAR(10),Date!D5, " ", TrapType_Collectors!D20)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1656,7 +1649,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="E5" s="71" t="str">
+      <c r="E5" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!E5, CHAR(10), LookupGPS!E5, CHAR(10),Date!E5, " ", TrapType_Collectors!E20)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1664,11 +1657,11 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="F5" s="71" t="e">
+      <c r="F5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F5, CHAR(10), LookupGPS!F5, CHAR(10),Date!F5, " ", TrapType_Collectors!F20)</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="71" t="str">
+      <c r="G5" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!G5, CHAR(10), LookupGPS!G5, CHAR(10),Date!G5, " ", TrapType_Collectors!G20)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1676,15 +1669,15 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="H5" s="71" t="e">
+      <c r="H5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H5, CHAR(10), LookupGPS!H5, CHAR(10),Date!H5, " ", TrapType_Collectors!H20)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="71" t="e">
+      <c r="I5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I5, CHAR(10), LookupGPS!I5, CHAR(10),Date!I5, " ", TrapType_Collectors!I20)</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="71" t="str">
+      <c r="J5" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J5, CHAR(10), LookupGPS!J5, CHAR(10),Date!J5, " ", TrapType_Collectors!J20)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1692,19 +1685,19 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K5" s="71" t="e">
+      <c r="K5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K5, CHAR(10), LookupGPS!K5, CHAR(10),Date!K5, " ", TrapType_Collectors!K20)</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="71" t="e">
+      <c r="L5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L5, CHAR(10), LookupGPS!L5, CHAR(10),Date!L5, " ", TrapType_Collectors!L20)</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="71" t="e">
+      <c r="M5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M5, CHAR(10), LookupGPS!M5, CHAR(10),Date!M5, " ", TrapType_Collectors!M20)</f>
         <v>#N/A</v>
       </c>
-      <c r="N5" s="71" t="e">
+      <c r="N5" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N5, CHAR(10), LookupGPS!N5, CHAR(10),Date!N5, " ", TrapType_Collectors!N20)</f>
         <v>#N/A</v>
       </c>
@@ -1722,7 +1715,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B6" s="71" t="str">
+      <c r="B6" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B6, CHAR(10), LookupGPS!B6, CHAR(10),Date!B6, " ", TrapType_Collectors!B21)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1730,11 +1723,11 @@
 2.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C6" s="71" t="e">
+      <c r="C6" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C6, CHAR(10), LookupGPS!C6, CHAR(10),Date!C6, " ", TrapType_Collectors!C21)</f>
         <v>#N/A</v>
       </c>
-      <c r="D6" s="71" t="str">
+      <c r="D6" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!D6, CHAR(10), LookupGPS!D6, CHAR(10),Date!D6, " ", TrapType_Collectors!D21)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1742,7 +1735,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="E6" s="71" t="str">
+      <c r="E6" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!E6, CHAR(10), LookupGPS!E6, CHAR(10),Date!E6, " ", TrapType_Collectors!E21)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1750,7 +1743,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="F6" s="71" t="str">
+      <c r="F6" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!F6, CHAR(10), LookupGPS!F6, CHAR(10),Date!F6, " ", TrapType_Collectors!F21)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1758,7 +1751,7 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="G6" s="71" t="str">
+      <c r="G6" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!G6, CHAR(10), LookupGPS!G6, CHAR(10),Date!G6, " ", TrapType_Collectors!G21)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1766,15 +1759,15 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="H6" s="71" t="e">
+      <c r="H6" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H6, CHAR(10), LookupGPS!H6, CHAR(10),Date!H6, " ", TrapType_Collectors!H21)</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="71" t="e">
+      <c r="I6" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I6, CHAR(10), LookupGPS!I6, CHAR(10),Date!I6, " ", TrapType_Collectors!I21)</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="71" t="str">
+      <c r="J6" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J6, CHAR(10), LookupGPS!J6, CHAR(10),Date!J6, " ", TrapType_Collectors!J21)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1782,19 +1775,19 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K6" s="71" t="e">
+      <c r="K6" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K6, CHAR(10), LookupGPS!K6, CHAR(10),Date!K6, " ", TrapType_Collectors!K21)</f>
         <v>#N/A</v>
       </c>
-      <c r="L6" s="71" t="e">
+      <c r="L6" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L6, CHAR(10), LookupGPS!L6, CHAR(10),Date!L6, " ", TrapType_Collectors!L21)</f>
         <v>#N/A</v>
       </c>
-      <c r="M6" s="71" t="e">
+      <c r="M6" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M6, CHAR(10), LookupGPS!M6, CHAR(10),Date!M6, " ", TrapType_Collectors!M21)</f>
         <v>#N/A</v>
       </c>
-      <c r="N6" s="71" t="e">
+      <c r="N6" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N6, CHAR(10), LookupGPS!N6, CHAR(10),Date!N6, " ", TrapType_Collectors!N21)</f>
         <v>#N/A</v>
       </c>
@@ -1812,7 +1805,7 @@
 27.vii - 11.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B7, CHAR(10), LookupGPS!B7, CHAR(10),Date!B7, " ", TrapType_Collectors!B22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1820,7 +1813,7 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C7" s="71" t="str">
+      <c r="C7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!C7, CHAR(10), LookupGPS!C7, CHAR(10),Date!C7, " ", TrapType_Collectors!C22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1828,7 +1821,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="D7" s="71" t="str">
+      <c r="D7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!D7, CHAR(10), LookupGPS!D7, CHAR(10),Date!D7, " ", TrapType_Collectors!D22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1836,7 +1829,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="E7" s="71" t="str">
+      <c r="E7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!E7, CHAR(10), LookupGPS!E7, CHAR(10),Date!E7, " ", TrapType_Collectors!E22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1844,7 +1837,7 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="F7" s="71" t="str">
+      <c r="F7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!F7, CHAR(10), LookupGPS!F7, CHAR(10),Date!F7, " ", TrapType_Collectors!F22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1852,7 +1845,7 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="G7" s="71" t="str">
+      <c r="G7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!G7, CHAR(10), LookupGPS!G7, CHAR(10),Date!G7, " ", TrapType_Collectors!G22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1860,7 +1853,7 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="H7" s="71" t="str">
+      <c r="H7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!H7, CHAR(10), LookupGPS!H7, CHAR(10),Date!H7, " ", TrapType_Collectors!H22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1868,11 +1861,11 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="I7" s="71" t="e">
+      <c r="I7" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I7, CHAR(10), LookupGPS!I7, CHAR(10),Date!I7, " ", TrapType_Collectors!I22)</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="71" t="str">
+      <c r="J7" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J7, CHAR(10), LookupGPS!J7, CHAR(10),Date!J7, " ", TrapType_Collectors!J22)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1880,19 +1873,19 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K7" s="71" t="e">
+      <c r="K7" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K7, CHAR(10), LookupGPS!K7, CHAR(10),Date!K7, " ", TrapType_Collectors!K22)</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="71" t="e">
+      <c r="L7" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L7, CHAR(10), LookupGPS!L7, CHAR(10),Date!L7, " ", TrapType_Collectors!L22)</f>
         <v>#N/A</v>
       </c>
-      <c r="M7" s="71" t="e">
+      <c r="M7" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M7, CHAR(10), LookupGPS!M7, CHAR(10),Date!M7, " ", TrapType_Collectors!M22)</f>
         <v>#N/A</v>
       </c>
-      <c r="N7" s="71" t="e">
+      <c r="N7" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N7, CHAR(10), LookupGPS!N7, CHAR(10),Date!N7, " ", TrapType_Collectors!N22)</f>
         <v>#N/A</v>
       </c>
@@ -1910,7 +1903,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B8" s="71" t="str">
+      <c r="B8" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B8, CHAR(10), LookupGPS!B8, CHAR(10),Date!B8, " ", TrapType_Collectors!B23)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1918,7 +1911,7 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C8" s="71" t="str">
+      <c r="C8" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!C8, CHAR(10), LookupGPS!C8, CHAR(10),Date!C8, " ", TrapType_Collectors!C23)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1926,7 +1919,7 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="D8" s="71" t="str">
+      <c r="D8" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!D8, CHAR(10), LookupGPS!D8, CHAR(10),Date!D8, " ", TrapType_Collectors!D23)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1934,7 +1927,7 @@
 11.viii - 23.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="E8" s="71" t="str">
+      <c r="E8" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!E8, CHAR(10), LookupGPS!E8, CHAR(10),Date!E8, " ", TrapType_Collectors!E23)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1942,7 +1935,7 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="F8" s="71" t="str">
+      <c r="F8" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!F8, CHAR(10), LookupGPS!F8, CHAR(10),Date!F8, " ", TrapType_Collectors!F23)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1950,19 +1943,19 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="G8" s="71" t="e">
+      <c r="G8" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G8, CHAR(10), LookupGPS!G8, CHAR(10),Date!G8, " ", TrapType_Collectors!G23)</f>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="71" t="e">
+      <c r="H8" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H8, CHAR(10), LookupGPS!H8, CHAR(10),Date!H8, " ", TrapType_Collectors!H23)</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="71" t="e">
+      <c r="I8" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I8, CHAR(10), LookupGPS!I8, CHAR(10),Date!I8, " ", TrapType_Collectors!I23)</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="71" t="str">
+      <c r="J8" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J8, CHAR(10), LookupGPS!J8, CHAR(10),Date!J8, " ", TrapType_Collectors!J23)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -1970,19 +1963,19 @@
 1.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K8" s="71" t="e">
+      <c r="K8" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K8, CHAR(10), LookupGPS!K8, CHAR(10),Date!K8, " ", TrapType_Collectors!K23)</f>
         <v>#N/A</v>
       </c>
-      <c r="L8" s="71" t="e">
+      <c r="L8" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L8, CHAR(10), LookupGPS!L8, CHAR(10),Date!L8, " ", TrapType_Collectors!L23)</f>
         <v>#N/A</v>
       </c>
-      <c r="M8" s="71" t="e">
+      <c r="M8" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M8, CHAR(10), LookupGPS!M8, CHAR(10),Date!M8, " ", TrapType_Collectors!M23)</f>
         <v>#N/A</v>
       </c>
-      <c r="N8" s="71" t="e">
+      <c r="N8" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N8, CHAR(10), LookupGPS!N8, CHAR(10),Date!N8, " ", TrapType_Collectors!N23)</f>
         <v>#N/A</v>
       </c>
@@ -1996,27 +1989,27 @@
         <f>CONCATENATE(CountryStateCountySite!A9, CHAR(10), LookupGPS!A9, CHAR(10),Date!A9, " ", TrapType_Collectors!A24)</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="71" t="e">
+      <c r="B9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B9, CHAR(10), LookupGPS!B9, CHAR(10),Date!B9, " ", TrapType_Collectors!B24)</f>
         <v>#N/A</v>
       </c>
-      <c r="C9" s="71" t="e">
+      <c r="C9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C9, CHAR(10), LookupGPS!C9, CHAR(10),Date!C9, " ", TrapType_Collectors!C24)</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="71" t="e">
+      <c r="D9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D9, CHAR(10), LookupGPS!D9, CHAR(10),Date!D9, " ", TrapType_Collectors!D24)</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="71" t="e">
+      <c r="E9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E9, CHAR(10), LookupGPS!E9, CHAR(10),Date!E9, " ", TrapType_Collectors!E24)</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="71" t="e">
+      <c r="F9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F9, CHAR(10), LookupGPS!F9, CHAR(10),Date!F9, " ", TrapType_Collectors!F24)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="71" t="str">
+      <c r="G9" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!G9, CHAR(10), LookupGPS!G9, CHAR(10),Date!G9, " ", TrapType_Collectors!G24)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2024,7 +2017,7 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="H9" s="71" t="str">
+      <c r="H9" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!H9, CHAR(10), LookupGPS!H9, CHAR(10),Date!H9, " ", TrapType_Collectors!H24)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2032,7 +2025,7 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="I9" s="71" t="str">
+      <c r="I9" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!I9, CHAR(10), LookupGPS!I9, CHAR(10),Date!I9, " ", TrapType_Collectors!I24)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2040,7 +2033,7 @@
 6.ix - 20.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="J9" s="71" t="str">
+      <c r="J9" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J9, CHAR(10), LookupGPS!J9, CHAR(10),Date!J9, " ", TrapType_Collectors!J24)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2048,19 +2041,19 @@
 23.viii - 6.ix.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K9" s="71" t="e">
+      <c r="K9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K9, CHAR(10), LookupGPS!K9, CHAR(10),Date!K9, " ", TrapType_Collectors!K24)</f>
         <v>#N/A</v>
       </c>
-      <c r="L9" s="71" t="e">
+      <c r="L9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L9, CHAR(10), LookupGPS!L9, CHAR(10),Date!L9, " ", TrapType_Collectors!L24)</f>
         <v>#N/A</v>
       </c>
-      <c r="M9" s="71" t="e">
+      <c r="M9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M9, CHAR(10), LookupGPS!M9, CHAR(10),Date!M9, " ", TrapType_Collectors!M24)</f>
         <v>#N/A</v>
       </c>
-      <c r="N9" s="71" t="e">
+      <c r="N9" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N9, CHAR(10), LookupGPS!N9, CHAR(10),Date!N9, " ", TrapType_Collectors!N24)</f>
         <v>#N/A</v>
       </c>
@@ -2078,7 +2071,7 @@
 29.vi - 13.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B10" s="71" t="str">
+      <c r="B10" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B10, CHAR(10), LookupGPS!B10, CHAR(10),Date!B10, " ", TrapType_Collectors!B25)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2086,11 +2079,11 @@
 1.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C10" s="71" t="e">
+      <c r="C10" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C10, CHAR(10), LookupGPS!C10, CHAR(10),Date!C10, " ", TrapType_Collectors!C25)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="71" t="str">
+      <c r="D10" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!D10, CHAR(10), LookupGPS!D10, CHAR(10),Date!D10, " ", TrapType_Collectors!D25)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2098,7 +2091,7 @@
 1.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="E10" s="71" t="str">
+      <c r="E10" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!E10, CHAR(10), LookupGPS!E10, CHAR(10),Date!E10, " ", TrapType_Collectors!E25)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2106,11 +2099,11 @@
 15.vi - 29.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="F10" s="71" t="e">
+      <c r="F10" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F10, CHAR(10), LookupGPS!F10, CHAR(10),Date!F10, " ", TrapType_Collectors!F25)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="71" t="str">
+      <c r="G10" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!G10, CHAR(10), LookupGPS!G10, CHAR(10),Date!G10, " ", TrapType_Collectors!G25)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2118,7 +2111,7 @@
 27.vii - 11.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="H10" s="71" t="str">
+      <c r="H10" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!H10, CHAR(10), LookupGPS!H10, CHAR(10),Date!H10, " ", TrapType_Collectors!H25)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2126,11 +2119,11 @@
 29.vi - 13.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="I10" s="71" t="e">
+      <c r="I10" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I10, CHAR(10), LookupGPS!I10, CHAR(10),Date!I10, " ", TrapType_Collectors!I25)</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="71" t="str">
+      <c r="J10" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J10, CHAR(10), LookupGPS!J10, CHAR(10),Date!J10, " ", TrapType_Collectors!J25)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2138,19 +2131,19 @@
 29.vi - 13.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K10" s="71" t="e">
+      <c r="K10" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K10, CHAR(10), LookupGPS!K10, CHAR(10),Date!K10, " ", TrapType_Collectors!K25)</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="71" t="e">
+      <c r="L10" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L10, CHAR(10), LookupGPS!L10, CHAR(10),Date!L10, " ", TrapType_Collectors!L25)</f>
         <v>#N/A</v>
       </c>
-      <c r="M10" s="71" t="e">
+      <c r="M10" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M10, CHAR(10), LookupGPS!M10, CHAR(10),Date!M10, " ", TrapType_Collectors!M25)</f>
         <v>#N/A</v>
       </c>
-      <c r="N10" s="71" t="e">
+      <c r="N10" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N10, CHAR(10), LookupGPS!N10, CHAR(10),Date!N10, " ", TrapType_Collectors!N25)</f>
         <v>#N/A</v>
       </c>
@@ -2168,7 +2161,7 @@
 1.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B11" s="71" t="str">
+      <c r="B11" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B11, CHAR(10), LookupGPS!B11, CHAR(10),Date!B11, " ", TrapType_Collectors!B26)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2176,35 +2169,35 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C11" s="71" t="e">
+      <c r="C11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C11, CHAR(10), LookupGPS!C11, CHAR(10),Date!C11, " ", TrapType_Collectors!C26)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="71" t="e">
+      <c r="D11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D11, CHAR(10), LookupGPS!D11, CHAR(10),Date!D11, " ", TrapType_Collectors!D26)</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="71" t="e">
+      <c r="E11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E11, CHAR(10), LookupGPS!E11, CHAR(10),Date!E11, " ", TrapType_Collectors!E26)</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="71" t="e">
+      <c r="F11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F11, CHAR(10), LookupGPS!F11, CHAR(10),Date!F11, " ", TrapType_Collectors!F26)</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="71" t="e">
+      <c r="G11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G11, CHAR(10), LookupGPS!G11, CHAR(10),Date!G11, " ", TrapType_Collectors!G26)</f>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="71" t="e">
+      <c r="H11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H11, CHAR(10), LookupGPS!H11, CHAR(10),Date!H11, " ", TrapType_Collectors!H26)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="71" t="e">
+      <c r="I11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I11, CHAR(10), LookupGPS!I11, CHAR(10),Date!I11, " ", TrapType_Collectors!I26)</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="71" t="str">
+      <c r="J11" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J11, CHAR(10), LookupGPS!J11, CHAR(10),Date!J11, " ", TrapType_Collectors!J26)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2212,19 +2205,19 @@
 1.vi - 15.vi.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K11" s="71" t="e">
+      <c r="K11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K11, CHAR(10), LookupGPS!K11, CHAR(10),Date!K11, " ", TrapType_Collectors!K26)</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="71" t="e">
+      <c r="L11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L11, CHAR(10), LookupGPS!L11, CHAR(10),Date!L11, " ", TrapType_Collectors!L26)</f>
         <v>#N/A</v>
       </c>
-      <c r="M11" s="71" t="e">
+      <c r="M11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M11, CHAR(10), LookupGPS!M11, CHAR(10),Date!M11, " ", TrapType_Collectors!M26)</f>
         <v>#N/A</v>
       </c>
-      <c r="N11" s="71" t="e">
+      <c r="N11" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N11, CHAR(10), LookupGPS!N11, CHAR(10),Date!N11, " ", TrapType_Collectors!N26)</f>
         <v>#N/A</v>
       </c>
@@ -2242,7 +2235,7 @@
 27.vii - 11.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="B12" s="71" t="str">
+      <c r="B12" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!B12, CHAR(10), LookupGPS!B12, CHAR(10),Date!B12, " ", TrapType_Collectors!B27)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2250,7 +2243,7 @@
 11.viii - 23.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="C12" s="71" t="str">
+      <c r="C12" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!C12, CHAR(10), LookupGPS!C12, CHAR(10),Date!C12, " ", TrapType_Collectors!C27)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2258,31 +2251,31 @@
 13.vii - 27.vii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="D12" s="71" t="e">
+      <c r="D12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D12, CHAR(10), LookupGPS!D12, CHAR(10),Date!D12, " ", TrapType_Collectors!D27)</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="71" t="e">
+      <c r="E12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E12, CHAR(10), LookupGPS!E12, CHAR(10),Date!E12, " ", TrapType_Collectors!E27)</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="71" t="e">
+      <c r="F12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F12, CHAR(10), LookupGPS!F12, CHAR(10),Date!F12, " ", TrapType_Collectors!F27)</f>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="71" t="e">
+      <c r="G12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G12, CHAR(10), LookupGPS!G12, CHAR(10),Date!G12, " ", TrapType_Collectors!G27)</f>
         <v>#N/A</v>
       </c>
-      <c r="H12" s="71" t="e">
+      <c r="H12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H12, CHAR(10), LookupGPS!H12, CHAR(10),Date!H12, " ", TrapType_Collectors!H27)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="71" t="e">
+      <c r="I12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I12, CHAR(10), LookupGPS!I12, CHAR(10),Date!I12, " ", TrapType_Collectors!I27)</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="71" t="str">
+      <c r="J12" s="2" t="str">
         <f>CONCATENATE(CountryStateCountySite!J12, CHAR(10), LookupGPS!J12, CHAR(10),Date!J12, " ", TrapType_Collectors!J27)</f>
         <v>USA:PA:Westmoreland Co
 Powdermill Nat. Resrv.
@@ -2290,19 +2283,19 @@
 27.vii - 11.viii.2022 pitfall
 A Kautz &amp; KI Perry</v>
       </c>
-      <c r="K12" s="71" t="e">
+      <c r="K12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K12, CHAR(10), LookupGPS!K12, CHAR(10),Date!K12, " ", TrapType_Collectors!K27)</f>
         <v>#N/A</v>
       </c>
-      <c r="L12" s="71" t="e">
+      <c r="L12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L12, CHAR(10), LookupGPS!L12, CHAR(10),Date!L12, " ", TrapType_Collectors!L27)</f>
         <v>#N/A</v>
       </c>
-      <c r="M12" s="71" t="e">
+      <c r="M12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M12, CHAR(10), LookupGPS!M12, CHAR(10),Date!M12, " ", TrapType_Collectors!M27)</f>
         <v>#N/A</v>
       </c>
-      <c r="N12" s="71" t="e">
+      <c r="N12" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N12, CHAR(10), LookupGPS!N12, CHAR(10),Date!N12, " ", TrapType_Collectors!N27)</f>
         <v>#N/A</v>
       </c>
@@ -2316,55 +2309,55 @@
         <f>CONCATENATE(CountryStateCountySite!A13, CHAR(10), LookupGPS!A13, CHAR(10),Date!A13, " ", TrapType_Collectors!A28)</f>
         <v>#N/A</v>
       </c>
-      <c r="B13" s="71" t="e">
+      <c r="B13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B13, CHAR(10), LookupGPS!B13, CHAR(10),Date!B13, " ", TrapType_Collectors!B28)</f>
         <v>#N/A</v>
       </c>
-      <c r="C13" s="71" t="e">
+      <c r="C13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C13, CHAR(10), LookupGPS!C13, CHAR(10),Date!C13, " ", TrapType_Collectors!C28)</f>
         <v>#N/A</v>
       </c>
-      <c r="D13" s="71" t="e">
+      <c r="D13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D13, CHAR(10), LookupGPS!D13, CHAR(10),Date!D13, " ", TrapType_Collectors!D28)</f>
         <v>#N/A</v>
       </c>
-      <c r="E13" s="71" t="e">
+      <c r="E13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E13, CHAR(10), LookupGPS!E13, CHAR(10),Date!E13, " ", TrapType_Collectors!E28)</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="71" t="e">
+      <c r="F13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F13, CHAR(10), LookupGPS!F13, CHAR(10),Date!F13, " ", TrapType_Collectors!F28)</f>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="71" t="e">
+      <c r="G13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G13, CHAR(10), LookupGPS!G13, CHAR(10),Date!G13, " ", TrapType_Collectors!G28)</f>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="71" t="e">
+      <c r="H13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H13, CHAR(10), LookupGPS!H13, CHAR(10),Date!H13, " ", TrapType_Collectors!H28)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="71" t="e">
+      <c r="I13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I13, CHAR(10), LookupGPS!I13, CHAR(10),Date!I13, " ", TrapType_Collectors!I28)</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="71" t="e">
+      <c r="J13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J13, CHAR(10), LookupGPS!J13, CHAR(10),Date!J13, " ", TrapType_Collectors!J28)</f>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="71" t="e">
+      <c r="K13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K13, CHAR(10), LookupGPS!K13, CHAR(10),Date!K13, " ", TrapType_Collectors!K28)</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="71" t="e">
+      <c r="L13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L13, CHAR(10), LookupGPS!L13, CHAR(10),Date!L13, " ", TrapType_Collectors!L28)</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="71" t="e">
+      <c r="M13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M13, CHAR(10), LookupGPS!M13, CHAR(10),Date!M13, " ", TrapType_Collectors!M28)</f>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="71" t="e">
+      <c r="N13" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N13, CHAR(10), LookupGPS!N13, CHAR(10),Date!N13, " ", TrapType_Collectors!N28)</f>
         <v>#N/A</v>
       </c>
@@ -2378,55 +2371,55 @@
         <f>CONCATENATE(CountryStateCountySite!A14, CHAR(10), LookupGPS!A14, CHAR(10),Date!A14, " ", TrapType_Collectors!A29)</f>
         <v>#N/A</v>
       </c>
-      <c r="B14" s="71" t="e">
+      <c r="B14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B14, CHAR(10), LookupGPS!B14, CHAR(10),Date!B14, " ", TrapType_Collectors!B29)</f>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="71" t="e">
+      <c r="C14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C14, CHAR(10), LookupGPS!C14, CHAR(10),Date!C14, " ", TrapType_Collectors!C29)</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="71" t="e">
+      <c r="D14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D14, CHAR(10), LookupGPS!D14, CHAR(10),Date!D14, " ", TrapType_Collectors!D29)</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="71" t="e">
+      <c r="E14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E14, CHAR(10), LookupGPS!E14, CHAR(10),Date!E14, " ", TrapType_Collectors!E29)</f>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="71" t="e">
+      <c r="F14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F14, CHAR(10), LookupGPS!F14, CHAR(10),Date!F14, " ", TrapType_Collectors!F29)</f>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="71" t="e">
+      <c r="G14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G14, CHAR(10), LookupGPS!G14, CHAR(10),Date!G14, " ", TrapType_Collectors!G29)</f>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="71" t="e">
+      <c r="H14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H14, CHAR(10), LookupGPS!H14, CHAR(10),Date!H14, " ", TrapType_Collectors!H29)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="71" t="e">
+      <c r="I14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I14, CHAR(10), LookupGPS!I14, CHAR(10),Date!I14, " ", TrapType_Collectors!I29)</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="71" t="e">
+      <c r="J14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J14, CHAR(10), LookupGPS!J14, CHAR(10),Date!J14, " ", TrapType_Collectors!J29)</f>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="71" t="e">
+      <c r="K14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K14, CHAR(10), LookupGPS!K14, CHAR(10),Date!K14, " ", TrapType_Collectors!K29)</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="71" t="e">
+      <c r="L14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L14, CHAR(10), LookupGPS!L14, CHAR(10),Date!L14, " ", TrapType_Collectors!L29)</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="71" t="e">
+      <c r="M14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M14, CHAR(10), LookupGPS!M14, CHAR(10),Date!M14, " ", TrapType_Collectors!M29)</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="71" t="e">
+      <c r="N14" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N14, CHAR(10), LookupGPS!N14, CHAR(10),Date!N14, " ", TrapType_Collectors!N29)</f>
         <v>#N/A</v>
       </c>
@@ -2440,55 +2433,55 @@
         <f>CONCATENATE(CountryStateCountySite!A15, CHAR(10), LookupGPS!A15, CHAR(10),Date!A15, " ", TrapType_Collectors!A30)</f>
         <v>#N/A</v>
       </c>
-      <c r="B15" s="71" t="e">
+      <c r="B15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B15, CHAR(10), LookupGPS!B15, CHAR(10),Date!B15, " ", TrapType_Collectors!B30)</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="71" t="e">
+      <c r="C15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C15, CHAR(10), LookupGPS!C15, CHAR(10),Date!C15, " ", TrapType_Collectors!C30)</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="71" t="e">
+      <c r="D15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D15, CHAR(10), LookupGPS!D15, CHAR(10),Date!D15, " ", TrapType_Collectors!D30)</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="71" t="e">
+      <c r="E15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E15, CHAR(10), LookupGPS!E15, CHAR(10),Date!E15, " ", TrapType_Collectors!E30)</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="71" t="e">
+      <c r="F15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F15, CHAR(10), LookupGPS!F15, CHAR(10),Date!F15, " ", TrapType_Collectors!F30)</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="71" t="e">
+      <c r="G15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G15, CHAR(10), LookupGPS!G15, CHAR(10),Date!G15, " ", TrapType_Collectors!G30)</f>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="71" t="e">
+      <c r="H15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H15, CHAR(10), LookupGPS!H15, CHAR(10),Date!H15, " ", TrapType_Collectors!H30)</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="71" t="e">
+      <c r="I15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I15, CHAR(10), LookupGPS!I15, CHAR(10),Date!I15, " ", TrapType_Collectors!I30)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="71" t="e">
+      <c r="J15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J15, CHAR(10), LookupGPS!J15, CHAR(10),Date!J15, " ", TrapType_Collectors!J30)</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="71" t="e">
+      <c r="K15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K15, CHAR(10), LookupGPS!K15, CHAR(10),Date!K15, " ", TrapType_Collectors!K30)</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="71" t="e">
+      <c r="L15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L15, CHAR(10), LookupGPS!L15, CHAR(10),Date!L15, " ", TrapType_Collectors!L30)</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="71" t="e">
+      <c r="M15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M15, CHAR(10), LookupGPS!M15, CHAR(10),Date!M15, " ", TrapType_Collectors!M30)</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="71" t="e">
+      <c r="N15" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N15, CHAR(10), LookupGPS!N15, CHAR(10),Date!N15, " ", TrapType_Collectors!N30)</f>
         <v>#N/A</v>
       </c>
@@ -2502,55 +2495,55 @@
         <f>CONCATENATE(CountryStateCountySite!A16, CHAR(10), LookupGPS!A16, CHAR(10),Date!A16, " ", TrapType_Collectors!A31)</f>
         <v>#N/A</v>
       </c>
-      <c r="B16" s="71" t="e">
+      <c r="B16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B16, CHAR(10), LookupGPS!B16, CHAR(10),Date!B16, " ", TrapType_Collectors!B31)</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="71" t="e">
+      <c r="C16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C16, CHAR(10), LookupGPS!C16, CHAR(10),Date!C16, " ", TrapType_Collectors!C31)</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="71" t="e">
+      <c r="D16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D16, CHAR(10), LookupGPS!D16, CHAR(10),Date!D16, " ", TrapType_Collectors!D31)</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="71" t="e">
+      <c r="E16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E16, CHAR(10), LookupGPS!E16, CHAR(10),Date!E16, " ", TrapType_Collectors!E31)</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="71" t="e">
+      <c r="F16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F16, CHAR(10), LookupGPS!F16, CHAR(10),Date!F16, " ", TrapType_Collectors!F31)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="71" t="e">
+      <c r="G16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G16, CHAR(10), LookupGPS!G16, CHAR(10),Date!G16, " ", TrapType_Collectors!G31)</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="71" t="e">
+      <c r="H16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H16, CHAR(10), LookupGPS!H16, CHAR(10),Date!H16, " ", TrapType_Collectors!H31)</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="71" t="e">
+      <c r="I16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I16, CHAR(10), LookupGPS!I16, CHAR(10),Date!I16, " ", TrapType_Collectors!I31)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="71" t="e">
+      <c r="J16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J16, CHAR(10), LookupGPS!J16, CHAR(10),Date!J16, " ", TrapType_Collectors!J31)</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="71" t="e">
+      <c r="K16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K16, CHAR(10), LookupGPS!K16, CHAR(10),Date!K16, " ", TrapType_Collectors!K31)</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="71" t="e">
+      <c r="L16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L16, CHAR(10), LookupGPS!L16, CHAR(10),Date!L16, " ", TrapType_Collectors!L31)</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="71" t="e">
+      <c r="M16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M16, CHAR(10), LookupGPS!M16, CHAR(10),Date!M16, " ", TrapType_Collectors!M31)</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="71" t="e">
+      <c r="N16" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N16, CHAR(10), LookupGPS!N16, CHAR(10),Date!N16, " ", TrapType_Collectors!N31)</f>
         <v>#N/A</v>
       </c>
@@ -2564,55 +2557,55 @@
         <f>CONCATENATE(CountryStateCountySite!A17, CHAR(10), LookupGPS!A17, CHAR(10),Date!A17, " ", TrapType_Collectors!A32)</f>
         <v>#N/A</v>
       </c>
-      <c r="B17" s="71" t="e">
+      <c r="B17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B17, CHAR(10), LookupGPS!B17, CHAR(10),Date!B17, " ", TrapType_Collectors!B32)</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="71" t="e">
+      <c r="C17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C17, CHAR(10), LookupGPS!C17, CHAR(10),Date!C17, " ", TrapType_Collectors!C32)</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="71" t="e">
+      <c r="D17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D17, CHAR(10), LookupGPS!D17, CHAR(10),Date!D17, " ", TrapType_Collectors!D32)</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="71" t="e">
+      <c r="E17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E17, CHAR(10), LookupGPS!E17, CHAR(10),Date!E17, " ", TrapType_Collectors!E32)</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="71" t="e">
+      <c r="F17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F17, CHAR(10), LookupGPS!F17, CHAR(10),Date!F17, " ", TrapType_Collectors!F32)</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="71" t="e">
+      <c r="G17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G17, CHAR(10), LookupGPS!G17, CHAR(10),Date!G17, " ", TrapType_Collectors!G32)</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="71" t="e">
+      <c r="H17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H17, CHAR(10), LookupGPS!H17, CHAR(10),Date!H17, " ", TrapType_Collectors!H32)</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="71" t="e">
+      <c r="I17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I17, CHAR(10), LookupGPS!I17, CHAR(10),Date!I17, " ", TrapType_Collectors!I32)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="71" t="e">
+      <c r="J17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J17, CHAR(10), LookupGPS!J17, CHAR(10),Date!J17, " ", TrapType_Collectors!J32)</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="71" t="e">
+      <c r="K17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K17, CHAR(10), LookupGPS!K17, CHAR(10),Date!K17, " ", TrapType_Collectors!K32)</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="71" t="e">
+      <c r="L17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L17, CHAR(10), LookupGPS!L17, CHAR(10),Date!L17, " ", TrapType_Collectors!L32)</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="71" t="e">
+      <c r="M17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M17, CHAR(10), LookupGPS!M17, CHAR(10),Date!M17, " ", TrapType_Collectors!M32)</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="71" t="e">
+      <c r="N17" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N17, CHAR(10), LookupGPS!N17, CHAR(10),Date!N17, " ", TrapType_Collectors!N32)</f>
         <v>#N/A</v>
       </c>
@@ -2626,55 +2619,55 @@
         <f>CONCATENATE(CountryStateCountySite!A18, CHAR(10), LookupGPS!A18, CHAR(10),Date!A18, " ", TrapType_Collectors!A33)</f>
         <v>#N/A</v>
       </c>
-      <c r="B18" s="71" t="e">
+      <c r="B18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B18, CHAR(10), LookupGPS!B18, CHAR(10),Date!B18, " ", TrapType_Collectors!B33)</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="71" t="e">
+      <c r="C18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C18, CHAR(10), LookupGPS!C18, CHAR(10),Date!C18, " ", TrapType_Collectors!C33)</f>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="71" t="e">
+      <c r="D18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D18, CHAR(10), LookupGPS!D18, CHAR(10),Date!D18, " ", TrapType_Collectors!D33)</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="71" t="e">
+      <c r="E18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E18, CHAR(10), LookupGPS!E18, CHAR(10),Date!E18, " ", TrapType_Collectors!E33)</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="71" t="e">
+      <c r="F18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F18, CHAR(10), LookupGPS!F18, CHAR(10),Date!F18, " ", TrapType_Collectors!F33)</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="71" t="e">
+      <c r="G18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G18, CHAR(10), LookupGPS!G18, CHAR(10),Date!G18, " ", TrapType_Collectors!G33)</f>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="71" t="e">
+      <c r="H18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H18, CHAR(10), LookupGPS!H18, CHAR(10),Date!H18, " ", TrapType_Collectors!H33)</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="71" t="e">
+      <c r="I18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I18, CHAR(10), LookupGPS!I18, CHAR(10),Date!I18, " ", TrapType_Collectors!I33)</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="71" t="e">
+      <c r="J18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J18, CHAR(10), LookupGPS!J18, CHAR(10),Date!J18, " ", TrapType_Collectors!J33)</f>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="71" t="e">
+      <c r="K18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K18, CHAR(10), LookupGPS!K18, CHAR(10),Date!K18, " ", TrapType_Collectors!K33)</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="71" t="e">
+      <c r="L18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L18, CHAR(10), LookupGPS!L18, CHAR(10),Date!L18, " ", TrapType_Collectors!L33)</f>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="71" t="e">
+      <c r="M18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M18, CHAR(10), LookupGPS!M18, CHAR(10),Date!M18, " ", TrapType_Collectors!M33)</f>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="71" t="e">
+      <c r="N18" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N18, CHAR(10), LookupGPS!N18, CHAR(10),Date!N18, " ", TrapType_Collectors!N33)</f>
         <v>#N/A</v>
       </c>
@@ -2688,55 +2681,55 @@
         <f>CONCATENATE(CountryStateCountySite!A19, CHAR(10), LookupGPS!A19, CHAR(10),Date!A19, " ", TrapType_Collectors!A34)</f>
         <v>#N/A</v>
       </c>
-      <c r="B19" s="71" t="e">
+      <c r="B19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B19, CHAR(10), LookupGPS!B19, CHAR(10),Date!B19, " ", TrapType_Collectors!B34)</f>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="71" t="e">
+      <c r="C19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C19, CHAR(10), LookupGPS!C19, CHAR(10),Date!C19, " ", TrapType_Collectors!C34)</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="71" t="e">
+      <c r="D19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D19, CHAR(10), LookupGPS!D19, CHAR(10),Date!D19, " ", TrapType_Collectors!D34)</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="71" t="e">
+      <c r="E19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E19, CHAR(10), LookupGPS!E19, CHAR(10),Date!E19, " ", TrapType_Collectors!E34)</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="71" t="e">
+      <c r="F19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F19, CHAR(10), LookupGPS!F19, CHAR(10),Date!F19, " ", TrapType_Collectors!F34)</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="71" t="e">
+      <c r="G19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G19, CHAR(10), LookupGPS!G19, CHAR(10),Date!G19, " ", TrapType_Collectors!G34)</f>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="71" t="e">
+      <c r="H19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H19, CHAR(10), LookupGPS!H19, CHAR(10),Date!H19, " ", TrapType_Collectors!H34)</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="71" t="e">
+      <c r="I19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I19, CHAR(10), LookupGPS!I19, CHAR(10),Date!I19, " ", TrapType_Collectors!I34)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="71" t="e">
+      <c r="J19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J19, CHAR(10), LookupGPS!J19, CHAR(10),Date!J19, " ", TrapType_Collectors!J34)</f>
         <v>#N/A</v>
       </c>
-      <c r="K19" s="71" t="e">
+      <c r="K19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K19, CHAR(10), LookupGPS!K19, CHAR(10),Date!K19, " ", TrapType_Collectors!K34)</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="71" t="e">
+      <c r="L19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L19, CHAR(10), LookupGPS!L19, CHAR(10),Date!L19, " ", TrapType_Collectors!L34)</f>
         <v>#N/A</v>
       </c>
-      <c r="M19" s="71" t="e">
+      <c r="M19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M19, CHAR(10), LookupGPS!M19, CHAR(10),Date!M19, " ", TrapType_Collectors!M34)</f>
         <v>#N/A</v>
       </c>
-      <c r="N19" s="71" t="e">
+      <c r="N19" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N19, CHAR(10), LookupGPS!N19, CHAR(10),Date!N19, " ", TrapType_Collectors!N34)</f>
         <v>#N/A</v>
       </c>
@@ -2750,55 +2743,55 @@
         <f>CONCATENATE(CountryStateCountySite!A20, CHAR(10), LookupGPS!A20, CHAR(10),Date!A20, " ", TrapType_Collectors!A35)</f>
         <v>#N/A</v>
       </c>
-      <c r="B20" s="71" t="e">
+      <c r="B20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B20, CHAR(10), LookupGPS!B20, CHAR(10),Date!B20, " ", TrapType_Collectors!B35)</f>
         <v>#N/A</v>
       </c>
-      <c r="C20" s="71" t="e">
+      <c r="C20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C20, CHAR(10), LookupGPS!C20, CHAR(10),Date!C20, " ", TrapType_Collectors!C35)</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="71" t="e">
+      <c r="D20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D20, CHAR(10), LookupGPS!D20, CHAR(10),Date!D20, " ", TrapType_Collectors!D35)</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="71" t="e">
+      <c r="E20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E20, CHAR(10), LookupGPS!E20, CHAR(10),Date!E20, " ", TrapType_Collectors!E35)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="71" t="e">
+      <c r="F20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F20, CHAR(10), LookupGPS!F20, CHAR(10),Date!F20, " ", TrapType_Collectors!F35)</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="71" t="e">
+      <c r="G20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G20, CHAR(10), LookupGPS!G20, CHAR(10),Date!G20, " ", TrapType_Collectors!G35)</f>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="71" t="e">
+      <c r="H20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H20, CHAR(10), LookupGPS!H20, CHAR(10),Date!H20, " ", TrapType_Collectors!H35)</f>
         <v>#N/A</v>
       </c>
-      <c r="I20" s="71" t="e">
+      <c r="I20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I20, CHAR(10), LookupGPS!I20, CHAR(10),Date!I20, " ", TrapType_Collectors!I35)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="71" t="e">
+      <c r="J20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J20, CHAR(10), LookupGPS!J20, CHAR(10),Date!J20, " ", TrapType_Collectors!J35)</f>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="71" t="e">
+      <c r="K20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K20, CHAR(10), LookupGPS!K20, CHAR(10),Date!K20, " ", TrapType_Collectors!K35)</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="71" t="e">
+      <c r="L20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L20, CHAR(10), LookupGPS!L20, CHAR(10),Date!L20, " ", TrapType_Collectors!L35)</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="71" t="e">
+      <c r="M20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M20, CHAR(10), LookupGPS!M20, CHAR(10),Date!M20, " ", TrapType_Collectors!M35)</f>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="71" t="e">
+      <c r="N20" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N20, CHAR(10), LookupGPS!N20, CHAR(10),Date!N20, " ", TrapType_Collectors!N35)</f>
         <v>#N/A</v>
       </c>
@@ -2812,55 +2805,55 @@
         <f>CONCATENATE(CountryStateCountySite!A21, CHAR(10), LookupGPS!A21, CHAR(10),Date!A21, " ", TrapType_Collectors!A36)</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="71" t="e">
+      <c r="B21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B21, CHAR(10), LookupGPS!B21, CHAR(10),Date!B21, " ", TrapType_Collectors!B36)</f>
         <v>#N/A</v>
       </c>
-      <c r="C21" s="71" t="e">
+      <c r="C21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C21, CHAR(10), LookupGPS!C21, CHAR(10),Date!C21, " ", TrapType_Collectors!C36)</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="71" t="e">
+      <c r="D21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D21, CHAR(10), LookupGPS!D21, CHAR(10),Date!D21, " ", TrapType_Collectors!D36)</f>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="71" t="e">
+      <c r="E21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E21, CHAR(10), LookupGPS!E21, CHAR(10),Date!E21, " ", TrapType_Collectors!E36)</f>
         <v>#N/A</v>
       </c>
-      <c r="F21" s="71" t="e">
+      <c r="F21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F21, CHAR(10), LookupGPS!F21, CHAR(10),Date!F21, " ", TrapType_Collectors!F36)</f>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="71" t="e">
+      <c r="G21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G21, CHAR(10), LookupGPS!G21, CHAR(10),Date!G21, " ", TrapType_Collectors!G36)</f>
         <v>#N/A</v>
       </c>
-      <c r="H21" s="71" t="e">
+      <c r="H21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H21, CHAR(10), LookupGPS!H21, CHAR(10),Date!H21, " ", TrapType_Collectors!H36)</f>
         <v>#N/A</v>
       </c>
-      <c r="I21" s="71" t="e">
+      <c r="I21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I21, CHAR(10), LookupGPS!I21, CHAR(10),Date!I21, " ", TrapType_Collectors!I36)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="71" t="e">
+      <c r="J21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J21, CHAR(10), LookupGPS!J21, CHAR(10),Date!J21, " ", TrapType_Collectors!J36)</f>
         <v>#N/A</v>
       </c>
-      <c r="K21" s="71" t="e">
+      <c r="K21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K21, CHAR(10), LookupGPS!K21, CHAR(10),Date!K21, " ", TrapType_Collectors!K36)</f>
         <v>#N/A</v>
       </c>
-      <c r="L21" s="71" t="e">
+      <c r="L21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L21, CHAR(10), LookupGPS!L21, CHAR(10),Date!L21, " ", TrapType_Collectors!L36)</f>
         <v>#N/A</v>
       </c>
-      <c r="M21" s="71" t="e">
+      <c r="M21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M21, CHAR(10), LookupGPS!M21, CHAR(10),Date!M21, " ", TrapType_Collectors!M36)</f>
         <v>#N/A</v>
       </c>
-      <c r="N21" s="71" t="e">
+      <c r="N21" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N21, CHAR(10), LookupGPS!N21, CHAR(10),Date!N21, " ", TrapType_Collectors!N36)</f>
         <v>#N/A</v>
       </c>
@@ -2874,55 +2867,55 @@
         <f>CONCATENATE(CountryStateCountySite!A22, CHAR(10), LookupGPS!A22, CHAR(10),Date!A22, " ", TrapType_Collectors!A37)</f>
         <v>#N/A</v>
       </c>
-      <c r="B22" s="71" t="e">
+      <c r="B22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B22, CHAR(10), LookupGPS!B22, CHAR(10),Date!B22, " ", TrapType_Collectors!B37)</f>
         <v>#N/A</v>
       </c>
-      <c r="C22" s="71" t="e">
+      <c r="C22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C22, CHAR(10), LookupGPS!C22, CHAR(10),Date!C22, " ", TrapType_Collectors!C37)</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="71" t="e">
+      <c r="D22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D22, CHAR(10), LookupGPS!D22, CHAR(10),Date!D22, " ", TrapType_Collectors!D37)</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="71" t="e">
+      <c r="E22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E22, CHAR(10), LookupGPS!E22, CHAR(10),Date!E22, " ", TrapType_Collectors!E37)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="71" t="e">
+      <c r="F22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F22, CHAR(10), LookupGPS!F22, CHAR(10),Date!F22, " ", TrapType_Collectors!F37)</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="71" t="e">
+      <c r="G22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G22, CHAR(10), LookupGPS!G22, CHAR(10),Date!G22, " ", TrapType_Collectors!G37)</f>
         <v>#N/A</v>
       </c>
-      <c r="H22" s="71" t="e">
+      <c r="H22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H22, CHAR(10), LookupGPS!H22, CHAR(10),Date!H22, " ", TrapType_Collectors!H37)</f>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="71" t="e">
+      <c r="I22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I22, CHAR(10), LookupGPS!I22, CHAR(10),Date!I22, " ", TrapType_Collectors!I37)</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="71" t="e">
+      <c r="J22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J22, CHAR(10), LookupGPS!J22, CHAR(10),Date!J22, " ", TrapType_Collectors!J37)</f>
         <v>#N/A</v>
       </c>
-      <c r="K22" s="71" t="e">
+      <c r="K22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K22, CHAR(10), LookupGPS!K22, CHAR(10),Date!K22, " ", TrapType_Collectors!K37)</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="71" t="e">
+      <c r="L22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L22, CHAR(10), LookupGPS!L22, CHAR(10),Date!L22, " ", TrapType_Collectors!L37)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="71" t="e">
+      <c r="M22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M22, CHAR(10), LookupGPS!M22, CHAR(10),Date!M22, " ", TrapType_Collectors!M37)</f>
         <v>#N/A</v>
       </c>
-      <c r="N22" s="71" t="e">
+      <c r="N22" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N22, CHAR(10), LookupGPS!N22, CHAR(10),Date!N22, " ", TrapType_Collectors!N37)</f>
         <v>#N/A</v>
       </c>
@@ -2936,55 +2929,55 @@
         <f>CONCATENATE(CountryStateCountySite!A23, CHAR(10), LookupGPS!A23, CHAR(10),Date!A23, " ", TrapType_Collectors!A38)</f>
         <v>#N/A</v>
       </c>
-      <c r="B23" s="71" t="e">
+      <c r="B23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B23, CHAR(10), LookupGPS!B23, CHAR(10),Date!B23, " ", TrapType_Collectors!B38)</f>
         <v>#N/A</v>
       </c>
-      <c r="C23" s="71" t="e">
+      <c r="C23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C23, CHAR(10), LookupGPS!C23, CHAR(10),Date!C23, " ", TrapType_Collectors!C38)</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="71" t="e">
+      <c r="D23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D23, CHAR(10), LookupGPS!D23, CHAR(10),Date!D23, " ", TrapType_Collectors!D38)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="71" t="e">
+      <c r="E23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E23, CHAR(10), LookupGPS!E23, CHAR(10),Date!E23, " ", TrapType_Collectors!E38)</f>
         <v>#N/A</v>
       </c>
-      <c r="F23" s="71" t="e">
+      <c r="F23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F23, CHAR(10), LookupGPS!F23, CHAR(10),Date!F23, " ", TrapType_Collectors!F38)</f>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="71" t="e">
+      <c r="G23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G23, CHAR(10), LookupGPS!G23, CHAR(10),Date!G23, " ", TrapType_Collectors!G38)</f>
         <v>#N/A</v>
       </c>
-      <c r="H23" s="71" t="e">
+      <c r="H23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H23, CHAR(10), LookupGPS!H23, CHAR(10),Date!H23, " ", TrapType_Collectors!H38)</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="71" t="e">
+      <c r="I23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I23, CHAR(10), LookupGPS!I23, CHAR(10),Date!I23, " ", TrapType_Collectors!I38)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="71" t="e">
+      <c r="J23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J23, CHAR(10), LookupGPS!J23, CHAR(10),Date!J23, " ", TrapType_Collectors!J38)</f>
         <v>#N/A</v>
       </c>
-      <c r="K23" s="71" t="e">
+      <c r="K23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K23, CHAR(10), LookupGPS!K23, CHAR(10),Date!K23, " ", TrapType_Collectors!K38)</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="71" t="e">
+      <c r="L23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L23, CHAR(10), LookupGPS!L23, CHAR(10),Date!L23, " ", TrapType_Collectors!L38)</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="71" t="e">
+      <c r="M23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M23, CHAR(10), LookupGPS!M23, CHAR(10),Date!M23, " ", TrapType_Collectors!M38)</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="71" t="e">
+      <c r="N23" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N23, CHAR(10), LookupGPS!N23, CHAR(10),Date!N23, " ", TrapType_Collectors!N38)</f>
         <v>#N/A</v>
       </c>
@@ -2998,55 +2991,55 @@
         <f>CONCATENATE(CountryStateCountySite!A24, CHAR(10), LookupGPS!A24, CHAR(10),Date!A24, " ", TrapType_Collectors!A39)</f>
         <v>#N/A</v>
       </c>
-      <c r="B24" s="71" t="e">
+      <c r="B24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B24, CHAR(10), LookupGPS!B24, CHAR(10),Date!B24, " ", TrapType_Collectors!B39)</f>
         <v>#N/A</v>
       </c>
-      <c r="C24" s="71" t="e">
+      <c r="C24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C24, CHAR(10), LookupGPS!C24, CHAR(10),Date!C24, " ", TrapType_Collectors!C39)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="71" t="e">
+      <c r="D24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D24, CHAR(10), LookupGPS!D24, CHAR(10),Date!D24, " ", TrapType_Collectors!D39)</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="71" t="e">
+      <c r="E24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E24, CHAR(10), LookupGPS!E24, CHAR(10),Date!E24, " ", TrapType_Collectors!E39)</f>
         <v>#N/A</v>
       </c>
-      <c r="F24" s="71" t="e">
+      <c r="F24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F24, CHAR(10), LookupGPS!F24, CHAR(10),Date!F24, " ", TrapType_Collectors!F39)</f>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="71" t="e">
+      <c r="G24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G24, CHAR(10), LookupGPS!G24, CHAR(10),Date!G24, " ", TrapType_Collectors!G39)</f>
         <v>#N/A</v>
       </c>
-      <c r="H24" s="71" t="e">
+      <c r="H24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H24, CHAR(10), LookupGPS!H24, CHAR(10),Date!H24, " ", TrapType_Collectors!H39)</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="71" t="e">
+      <c r="I24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I24, CHAR(10), LookupGPS!I24, CHAR(10),Date!I24, " ", TrapType_Collectors!I39)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="71" t="e">
+      <c r="J24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J24, CHAR(10), LookupGPS!J24, CHAR(10),Date!J24, " ", TrapType_Collectors!J39)</f>
         <v>#N/A</v>
       </c>
-      <c r="K24" s="71" t="e">
+      <c r="K24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K24, CHAR(10), LookupGPS!K24, CHAR(10),Date!K24, " ", TrapType_Collectors!K39)</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="71" t="e">
+      <c r="L24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L24, CHAR(10), LookupGPS!L24, CHAR(10),Date!L24, " ", TrapType_Collectors!L39)</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="71" t="e">
+      <c r="M24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M24, CHAR(10), LookupGPS!M24, CHAR(10),Date!M24, " ", TrapType_Collectors!M39)</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="71" t="e">
+      <c r="N24" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N24, CHAR(10), LookupGPS!N24, CHAR(10),Date!N24, " ", TrapType_Collectors!N39)</f>
         <v>#N/A</v>
       </c>
@@ -3060,55 +3053,55 @@
         <f>CONCATENATE(CountryStateCountySite!A25, CHAR(10), LookupGPS!A25, CHAR(10),Date!A25, " ", TrapType_Collectors!A40)</f>
         <v>#N/A</v>
       </c>
-      <c r="B25" s="71" t="e">
+      <c r="B25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B25, CHAR(10), LookupGPS!B25, CHAR(10),Date!B25, " ", TrapType_Collectors!B40)</f>
         <v>#N/A</v>
       </c>
-      <c r="C25" s="71" t="e">
+      <c r="C25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C25, CHAR(10), LookupGPS!C25, CHAR(10),Date!C25, " ", TrapType_Collectors!C40)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="71" t="e">
+      <c r="D25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D25, CHAR(10), LookupGPS!D25, CHAR(10),Date!D25, " ", TrapType_Collectors!D40)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="71" t="e">
+      <c r="E25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E25, CHAR(10), LookupGPS!E25, CHAR(10),Date!E25, " ", TrapType_Collectors!E40)</f>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="71" t="e">
+      <c r="F25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F25, CHAR(10), LookupGPS!F25, CHAR(10),Date!F25, " ", TrapType_Collectors!F40)</f>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="71" t="e">
+      <c r="G25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G25, CHAR(10), LookupGPS!G25, CHAR(10),Date!G25, " ", TrapType_Collectors!G40)</f>
         <v>#N/A</v>
       </c>
-      <c r="H25" s="71" t="e">
+      <c r="H25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H25, CHAR(10), LookupGPS!H25, CHAR(10),Date!H25, " ", TrapType_Collectors!H40)</f>
         <v>#N/A</v>
       </c>
-      <c r="I25" s="71" t="e">
+      <c r="I25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I25, CHAR(10), LookupGPS!I25, CHAR(10),Date!I25, " ", TrapType_Collectors!I40)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="71" t="e">
+      <c r="J25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J25, CHAR(10), LookupGPS!J25, CHAR(10),Date!J25, " ", TrapType_Collectors!J40)</f>
         <v>#N/A</v>
       </c>
-      <c r="K25" s="71" t="e">
+      <c r="K25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K25, CHAR(10), LookupGPS!K25, CHAR(10),Date!K25, " ", TrapType_Collectors!K40)</f>
         <v>#N/A</v>
       </c>
-      <c r="L25" s="71" t="e">
+      <c r="L25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L25, CHAR(10), LookupGPS!L25, CHAR(10),Date!L25, " ", TrapType_Collectors!L40)</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="71" t="e">
+      <c r="M25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M25, CHAR(10), LookupGPS!M25, CHAR(10),Date!M25, " ", TrapType_Collectors!M40)</f>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="71" t="e">
+      <c r="N25" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N25, CHAR(10), LookupGPS!N25, CHAR(10),Date!N25, " ", TrapType_Collectors!N40)</f>
         <v>#N/A</v>
       </c>
@@ -3122,55 +3115,55 @@
         <f>CONCATENATE(CountryStateCountySite!A26, CHAR(10), LookupGPS!A26, CHAR(10),Date!A26, " ", TrapType_Collectors!A41)</f>
         <v>#N/A</v>
       </c>
-      <c r="B26" s="71" t="e">
+      <c r="B26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B26, CHAR(10), LookupGPS!B26, CHAR(10),Date!B26, " ", TrapType_Collectors!B41)</f>
         <v>#N/A</v>
       </c>
-      <c r="C26" s="71" t="e">
+      <c r="C26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C26, CHAR(10), LookupGPS!C26, CHAR(10),Date!C26, " ", TrapType_Collectors!C41)</f>
         <v>#N/A</v>
       </c>
-      <c r="D26" s="71" t="e">
+      <c r="D26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D26, CHAR(10), LookupGPS!D26, CHAR(10),Date!D26, " ", TrapType_Collectors!D41)</f>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="71" t="e">
+      <c r="E26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E26, CHAR(10), LookupGPS!E26, CHAR(10),Date!E26, " ", TrapType_Collectors!E41)</f>
         <v>#N/A</v>
       </c>
-      <c r="F26" s="71" t="e">
+      <c r="F26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F26, CHAR(10), LookupGPS!F26, CHAR(10),Date!F26, " ", TrapType_Collectors!F41)</f>
         <v>#N/A</v>
       </c>
-      <c r="G26" s="71" t="e">
+      <c r="G26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G26, CHAR(10), LookupGPS!G26, CHAR(10),Date!G26, " ", TrapType_Collectors!G41)</f>
         <v>#N/A</v>
       </c>
-      <c r="H26" s="71" t="e">
+      <c r="H26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H26, CHAR(10), LookupGPS!H26, CHAR(10),Date!H26, " ", TrapType_Collectors!H41)</f>
         <v>#N/A</v>
       </c>
-      <c r="I26" s="71" t="e">
+      <c r="I26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I26, CHAR(10), LookupGPS!I26, CHAR(10),Date!I26, " ", TrapType_Collectors!I41)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="71" t="e">
+      <c r="J26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J26, CHAR(10), LookupGPS!J26, CHAR(10),Date!J26, " ", TrapType_Collectors!J41)</f>
         <v>#N/A</v>
       </c>
-      <c r="K26" s="71" t="e">
+      <c r="K26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K26, CHAR(10), LookupGPS!K26, CHAR(10),Date!K26, " ", TrapType_Collectors!K41)</f>
         <v>#N/A</v>
       </c>
-      <c r="L26" s="71" t="e">
+      <c r="L26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L26, CHAR(10), LookupGPS!L26, CHAR(10),Date!L26, " ", TrapType_Collectors!L41)</f>
         <v>#N/A</v>
       </c>
-      <c r="M26" s="71" t="e">
+      <c r="M26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M26, CHAR(10), LookupGPS!M26, CHAR(10),Date!M26, " ", TrapType_Collectors!M41)</f>
         <v>#N/A</v>
       </c>
-      <c r="N26" s="71" t="e">
+      <c r="N26" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N26, CHAR(10), LookupGPS!N26, CHAR(10),Date!N26, " ", TrapType_Collectors!N41)</f>
         <v>#N/A</v>
       </c>
@@ -3184,55 +3177,55 @@
         <f>CONCATENATE(CountryStateCountySite!A27, CHAR(10), LookupGPS!A27, CHAR(10),Date!A27, " ", TrapType_Collectors!A42)</f>
         <v>#N/A</v>
       </c>
-      <c r="B27" s="71" t="e">
+      <c r="B27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B27, CHAR(10), LookupGPS!B27, CHAR(10),Date!B27, " ", TrapType_Collectors!B42)</f>
         <v>#N/A</v>
       </c>
-      <c r="C27" s="71" t="e">
+      <c r="C27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C27, CHAR(10), LookupGPS!C27, CHAR(10),Date!C27, " ", TrapType_Collectors!C42)</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="71" t="e">
+      <c r="D27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D27, CHAR(10), LookupGPS!D27, CHAR(10),Date!D27, " ", TrapType_Collectors!D42)</f>
         <v>#N/A</v>
       </c>
-      <c r="E27" s="71" t="e">
+      <c r="E27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E27, CHAR(10), LookupGPS!E27, CHAR(10),Date!E27, " ", TrapType_Collectors!E42)</f>
         <v>#N/A</v>
       </c>
-      <c r="F27" s="71" t="e">
+      <c r="F27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F27, CHAR(10), LookupGPS!F27, CHAR(10),Date!F27, " ", TrapType_Collectors!F42)</f>
         <v>#N/A</v>
       </c>
-      <c r="G27" s="71" t="e">
+      <c r="G27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G27, CHAR(10), LookupGPS!G27, CHAR(10),Date!G27, " ", TrapType_Collectors!G42)</f>
         <v>#N/A</v>
       </c>
-      <c r="H27" s="71" t="e">
+      <c r="H27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H27, CHAR(10), LookupGPS!H27, CHAR(10),Date!H27, " ", TrapType_Collectors!H42)</f>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="71" t="e">
+      <c r="I27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I27, CHAR(10), LookupGPS!I27, CHAR(10),Date!I27, " ", TrapType_Collectors!I42)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="71" t="e">
+      <c r="J27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J27, CHAR(10), LookupGPS!J27, CHAR(10),Date!J27, " ", TrapType_Collectors!J42)</f>
         <v>#N/A</v>
       </c>
-      <c r="K27" s="71" t="e">
+      <c r="K27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K27, CHAR(10), LookupGPS!K27, CHAR(10),Date!K27, " ", TrapType_Collectors!K42)</f>
         <v>#N/A</v>
       </c>
-      <c r="L27" s="71" t="e">
+      <c r="L27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L27, CHAR(10), LookupGPS!L27, CHAR(10),Date!L27, " ", TrapType_Collectors!L42)</f>
         <v>#N/A</v>
       </c>
-      <c r="M27" s="71" t="e">
+      <c r="M27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M27, CHAR(10), LookupGPS!M27, CHAR(10),Date!M27, " ", TrapType_Collectors!M42)</f>
         <v>#N/A</v>
       </c>
-      <c r="N27" s="71" t="e">
+      <c r="N27" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N27, CHAR(10), LookupGPS!N27, CHAR(10),Date!N27, " ", TrapType_Collectors!N42)</f>
         <v>#N/A</v>
       </c>
@@ -3246,55 +3239,55 @@
         <f>CONCATENATE(CountryStateCountySite!A28, CHAR(10), LookupGPS!A28, CHAR(10),Date!A28, " ", TrapType_Collectors!A43)</f>
         <v>#N/A</v>
       </c>
-      <c r="B28" s="71" t="e">
+      <c r="B28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B28, CHAR(10), LookupGPS!B28, CHAR(10),Date!B28, " ", TrapType_Collectors!B43)</f>
         <v>#N/A</v>
       </c>
-      <c r="C28" s="71" t="e">
+      <c r="C28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C28, CHAR(10), LookupGPS!C28, CHAR(10),Date!C28, " ", TrapType_Collectors!C43)</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="71" t="e">
+      <c r="D28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D28, CHAR(10), LookupGPS!D28, CHAR(10),Date!D28, " ", TrapType_Collectors!D43)</f>
         <v>#N/A</v>
       </c>
-      <c r="E28" s="71" t="e">
+      <c r="E28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E28, CHAR(10), LookupGPS!E28, CHAR(10),Date!E28, " ", TrapType_Collectors!E43)</f>
         <v>#N/A</v>
       </c>
-      <c r="F28" s="71" t="e">
+      <c r="F28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F28, CHAR(10), LookupGPS!F28, CHAR(10),Date!F28, " ", TrapType_Collectors!F43)</f>
         <v>#N/A</v>
       </c>
-      <c r="G28" s="71" t="e">
+      <c r="G28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G28, CHAR(10), LookupGPS!G28, CHAR(10),Date!G28, " ", TrapType_Collectors!G43)</f>
         <v>#N/A</v>
       </c>
-      <c r="H28" s="71" t="e">
+      <c r="H28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H28, CHAR(10), LookupGPS!H28, CHAR(10),Date!H28, " ", TrapType_Collectors!H43)</f>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="71" t="e">
+      <c r="I28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I28, CHAR(10), LookupGPS!I28, CHAR(10),Date!I28, " ", TrapType_Collectors!I43)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="71" t="e">
+      <c r="J28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J28, CHAR(10), LookupGPS!J28, CHAR(10),Date!J28, " ", TrapType_Collectors!J43)</f>
         <v>#N/A</v>
       </c>
-      <c r="K28" s="71" t="e">
+      <c r="K28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K28, CHAR(10), LookupGPS!K28, CHAR(10),Date!K28, " ", TrapType_Collectors!K43)</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="71" t="e">
+      <c r="L28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L28, CHAR(10), LookupGPS!L28, CHAR(10),Date!L28, " ", TrapType_Collectors!L43)</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="71" t="e">
+      <c r="M28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M28, CHAR(10), LookupGPS!M28, CHAR(10),Date!M28, " ", TrapType_Collectors!M43)</f>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="71" t="e">
+      <c r="N28" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N28, CHAR(10), LookupGPS!N28, CHAR(10),Date!N28, " ", TrapType_Collectors!N43)</f>
         <v>#N/A</v>
       </c>
@@ -3308,55 +3301,55 @@
         <f>CONCATENATE(CountryStateCountySite!A29, CHAR(10), LookupGPS!A29, CHAR(10),Date!A29, " ", TrapType_Collectors!A44)</f>
         <v>#N/A</v>
       </c>
-      <c r="B29" s="71" t="e">
+      <c r="B29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B29, CHAR(10), LookupGPS!B29, CHAR(10),Date!B29, " ", TrapType_Collectors!B44)</f>
         <v>#N/A</v>
       </c>
-      <c r="C29" s="71" t="e">
+      <c r="C29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C29, CHAR(10), LookupGPS!C29, CHAR(10),Date!C29, " ", TrapType_Collectors!C44)</f>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="71" t="e">
+      <c r="D29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D29, CHAR(10), LookupGPS!D29, CHAR(10),Date!D29, " ", TrapType_Collectors!D44)</f>
         <v>#N/A</v>
       </c>
-      <c r="E29" s="71" t="e">
+      <c r="E29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E29, CHAR(10), LookupGPS!E29, CHAR(10),Date!E29, " ", TrapType_Collectors!E44)</f>
         <v>#N/A</v>
       </c>
-      <c r="F29" s="71" t="e">
+      <c r="F29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F29, CHAR(10), LookupGPS!F29, CHAR(10),Date!F29, " ", TrapType_Collectors!F44)</f>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="71" t="e">
+      <c r="G29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G29, CHAR(10), LookupGPS!G29, CHAR(10),Date!G29, " ", TrapType_Collectors!G44)</f>
         <v>#N/A</v>
       </c>
-      <c r="H29" s="71" t="e">
+      <c r="H29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H29, CHAR(10), LookupGPS!H29, CHAR(10),Date!H29, " ", TrapType_Collectors!H44)</f>
         <v>#N/A</v>
       </c>
-      <c r="I29" s="71" t="e">
+      <c r="I29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I29, CHAR(10), LookupGPS!I29, CHAR(10),Date!I29, " ", TrapType_Collectors!I44)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="71" t="e">
+      <c r="J29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J29, CHAR(10), LookupGPS!J29, CHAR(10),Date!J29, " ", TrapType_Collectors!J44)</f>
         <v>#N/A</v>
       </c>
-      <c r="K29" s="71" t="e">
+      <c r="K29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K29, CHAR(10), LookupGPS!K29, CHAR(10),Date!K29, " ", TrapType_Collectors!K44)</f>
         <v>#N/A</v>
       </c>
-      <c r="L29" s="71" t="e">
+      <c r="L29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L29, CHAR(10), LookupGPS!L29, CHAR(10),Date!L29, " ", TrapType_Collectors!L44)</f>
         <v>#N/A</v>
       </c>
-      <c r="M29" s="71" t="e">
+      <c r="M29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M29, CHAR(10), LookupGPS!M29, CHAR(10),Date!M29, " ", TrapType_Collectors!M44)</f>
         <v>#N/A</v>
       </c>
-      <c r="N29" s="71" t="e">
+      <c r="N29" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N29, CHAR(10), LookupGPS!N29, CHAR(10),Date!N29, " ", TrapType_Collectors!N44)</f>
         <v>#N/A</v>
       </c>
@@ -3370,55 +3363,55 @@
         <f>CONCATENATE(CountryStateCountySite!A30, CHAR(10), LookupGPS!A30, CHAR(10),Date!A30, " ", TrapType_Collectors!A45)</f>
         <v>#N/A</v>
       </c>
-      <c r="B30" s="71" t="e">
+      <c r="B30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!B30, CHAR(10), LookupGPS!B30, CHAR(10),Date!B30, " ", TrapType_Collectors!B45)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="71" t="e">
+      <c r="C30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!C30, CHAR(10), LookupGPS!C30, CHAR(10),Date!C30, " ", TrapType_Collectors!C45)</f>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="71" t="e">
+      <c r="D30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!D30, CHAR(10), LookupGPS!D30, CHAR(10),Date!D30, " ", TrapType_Collectors!D45)</f>
         <v>#N/A</v>
       </c>
-      <c r="E30" s="71" t="e">
+      <c r="E30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!E30, CHAR(10), LookupGPS!E30, CHAR(10),Date!E30, " ", TrapType_Collectors!E45)</f>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="71" t="e">
+      <c r="F30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!F30, CHAR(10), LookupGPS!F30, CHAR(10),Date!F30, " ", TrapType_Collectors!F45)</f>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="71" t="e">
+      <c r="G30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!G30, CHAR(10), LookupGPS!G30, CHAR(10),Date!G30, " ", TrapType_Collectors!G45)</f>
         <v>#N/A</v>
       </c>
-      <c r="H30" s="71" t="e">
+      <c r="H30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!H30, CHAR(10), LookupGPS!H30, CHAR(10),Date!H30, " ", TrapType_Collectors!H45)</f>
         <v>#N/A</v>
       </c>
-      <c r="I30" s="71" t="e">
+      <c r="I30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!I30, CHAR(10), LookupGPS!I30, CHAR(10),Date!I30, " ", TrapType_Collectors!I45)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="71" t="e">
+      <c r="J30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!J30, CHAR(10), LookupGPS!J30, CHAR(10),Date!J30, " ", TrapType_Collectors!J45)</f>
         <v>#N/A</v>
       </c>
-      <c r="K30" s="71" t="e">
+      <c r="K30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!K30, CHAR(10), LookupGPS!K30, CHAR(10),Date!K30, " ", TrapType_Collectors!K45)</f>
         <v>#N/A</v>
       </c>
-      <c r="L30" s="71" t="e">
+      <c r="L30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!L30, CHAR(10), LookupGPS!L30, CHAR(10),Date!L30, " ", TrapType_Collectors!L45)</f>
         <v>#N/A</v>
       </c>
-      <c r="M30" s="71" t="e">
+      <c r="M30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!M30, CHAR(10), LookupGPS!M30, CHAR(10),Date!M30, " ", TrapType_Collectors!M45)</f>
         <v>#N/A</v>
       </c>
-      <c r="N30" s="71" t="e">
+      <c r="N30" s="2" t="e">
         <f>CONCATENATE(CountryStateCountySite!N30, CHAR(10), LookupGPS!N30, CHAR(10),Date!N30, " ", TrapType_Collectors!N45)</f>
         <v>#N/A</v>
       </c>
@@ -14506,7 +14499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.5">
+    <row r="2" spans="1:2">
       <c r="A2" s="59" t="s">
         <v>43</v>
       </c>
@@ -14514,7 +14507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38.5">
+    <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
         <v>44</v>
       </c>
@@ -14522,7 +14515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.5">
+    <row r="4" spans="1:2">
       <c r="A4" s="59" t="s">
         <v>45</v>
       </c>
@@ -14530,7 +14523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38.5">
+    <row r="5" spans="1:2">
       <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
@@ -14538,7 +14531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38.5">
+    <row r="6" spans="1:2">
       <c r="A6" s="59" t="s">
         <v>47</v>
       </c>
@@ -14546,7 +14539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38.5">
+    <row r="7" spans="1:2">
       <c r="A7" s="59" t="s">
         <v>48</v>
       </c>
@@ -14554,7 +14547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="38.5">
+    <row r="8" spans="1:2">
       <c r="A8" s="59" t="s">
         <v>49</v>
       </c>
@@ -14562,7 +14555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26">
+    <row r="9" spans="1:2">
       <c r="A9" s="59" t="s">
         <v>50</v>
       </c>
@@ -14570,7 +14563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="38.5">
+    <row r="10" spans="1:2">
       <c r="A10" s="59" t="s">
         <v>51</v>
       </c>
@@ -14590,8 +14583,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="20" zoomScaleNormal="20" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="A1:J12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>
@@ -14699,82 +14692,82 @@
 Plot: 51
 Disturbance: Windthrow</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 42
 Disturbance: Salvaged</v>
       </c>
-      <c r="C2" s="71" t="str">
+      <c r="C2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 59
 Disturbance: Windthrow</v>
       </c>
-      <c r="D2" s="71" t="str">
+      <c r="D2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="E2" s="71" t="str">
+      <c r="E2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 62
 Disturbance: Forest</v>
       </c>
-      <c r="F2" s="71" t="str">
+      <c r="F2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="G2" s="71" t="str">
+      <c r="G2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 44
 Disturbance: Forest</v>
       </c>
-      <c r="H2" s="71" t="str">
+      <c r="H2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 62
 Disturbance: Forest</v>
       </c>
-      <c r="I2" s="71" t="str">
+      <c r="I2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 48
 Disturbance: Forest</v>
       </c>
-      <c r="J2" s="71" t="str">
+      <c r="J2" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 46
 Disturbance: Salvaged</v>
       </c>
-      <c r="K2" s="71" t="e">
+      <c r="K2" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L2" s="71" t="e">
+      <c r="L2" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="71" t="e">
+      <c r="M2" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N2" s="71" t="e">
+      <c r="N2" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N2,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N2, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -14791,70 +14784,70 @@
 Plot: 55
 Disturbance: Windthrow</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 56
 Disturbance: Forest</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 56
 Disturbance: Forest</v>
       </c>
-      <c r="D3" s="71" t="e">
+      <c r="D3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E3" s="71" t="e">
+      <c r="E3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="71" t="e">
+      <c r="F3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G3" s="71" t="str">
+      <c r="G3" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 46
 Disturbance: Salvaged</v>
       </c>
-      <c r="H3" s="71" t="str">
+      <c r="H3" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 57
 Disturbance: Salvaged</v>
       </c>
-      <c r="I3" s="71" t="e">
+      <c r="I3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="71" t="str">
+      <c r="J3" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="K3" s="71" t="e">
+      <c r="K3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" s="71" t="e">
+      <c r="L3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M3" s="71" t="e">
+      <c r="M3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N3" s="71" t="e">
+      <c r="N3" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N3,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N3, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -14871,73 +14864,73 @@
 Plot: 52
 Disturbance: Forest</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 56
 Disturbance: Forest</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 53
 Disturbance: Salvaged</v>
       </c>
-      <c r="D4" s="71" t="str">
+      <c r="D4" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="E4" s="71" t="str">
+      <c r="E4" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="G4" s="71" t="e">
+      <c r="G4" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="71" t="e">
+      <c r="H4" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="71" t="e">
+      <c r="I4" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="71" t="str">
+      <c r="J4" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 53
 Disturbance: Salvaged</v>
       </c>
-      <c r="K4" s="71" t="e">
+      <c r="K4" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L4" s="71" t="e">
+      <c r="L4" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M4" s="71" t="e">
+      <c r="M4" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N4" s="71" t="e">
+      <c r="N4" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N4,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N4, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -14951,67 +14944,67 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B5" s="71" t="e">
+      <c r="B5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="71" t="e">
+      <c r="C5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="71" t="str">
+      <c r="D5" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 64
 Disturbance: Forest</v>
       </c>
-      <c r="E5" s="71" t="str">
+      <c r="E5" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 54
 Disturbance: Forest</v>
       </c>
-      <c r="F5" s="71" t="e">
+      <c r="F5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="71" t="str">
+      <c r="G5" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 59
 Disturbance: Windthrow</v>
       </c>
-      <c r="H5" s="71" t="e">
+      <c r="H5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="71" t="e">
+      <c r="I5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="71" t="str">
+      <c r="J5" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="K5" s="71" t="e">
+      <c r="K5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="71" t="e">
+      <c r="L5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="71" t="e">
+      <c r="M5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N5" s="71" t="e">
+      <c r="N5" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N5,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N5, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15028,73 +15021,73 @@
 Plot: 47
 Disturbance: Windthrow</v>
       </c>
-      <c r="B6" s="71" t="str">
+      <c r="B6" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 43
 Disturbance: Windthrow</v>
       </c>
-      <c r="C6" s="71" t="e">
+      <c r="C6" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D6" s="71" t="str">
+      <c r="D6" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 52
 Disturbance: Forest</v>
       </c>
-      <c r="E6" s="71" t="str">
+      <c r="E6" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 51
 Disturbance: Windthrow</v>
       </c>
-      <c r="F6" s="71" t="str">
+      <c r="F6" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 47
 Disturbance: Windthrow</v>
       </c>
-      <c r="G6" s="71" t="str">
+      <c r="G6" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 60
 Disturbance: Forest</v>
       </c>
-      <c r="H6" s="71" t="e">
+      <c r="H6" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="71" t="e">
+      <c r="I6" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="71" t="str">
+      <c r="J6" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 56
 Disturbance: Forest</v>
       </c>
-      <c r="K6" s="71" t="e">
+      <c r="K6" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L6" s="71" t="e">
+      <c r="L6" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M6" s="71" t="e">
+      <c r="M6" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N6" s="71" t="e">
+      <c r="N6" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N6,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N6, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15111,79 +15104,79 @@
 Plot: 42
 Disturbance: Salvaged</v>
       </c>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 56
 Disturbance: Forest</v>
       </c>
-      <c r="C7" s="71" t="str">
+      <c r="C7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 56
 Disturbance: Forest</v>
       </c>
-      <c r="D7" s="71" t="str">
+      <c r="D7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 59
 Disturbance: Windthrow</v>
       </c>
-      <c r="E7" s="71" t="str">
+      <c r="E7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 64
 Disturbance: Forest</v>
       </c>
-      <c r="F7" s="71" t="str">
+      <c r="F7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="G7" s="71" t="str">
+      <c r="G7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 61
 Disturbance: Salvaged</v>
       </c>
-      <c r="H7" s="71" t="str">
+      <c r="H7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 52
 Disturbance: Forest</v>
       </c>
-      <c r="I7" s="71" t="e">
+      <c r="I7" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="71" t="str">
+      <c r="J7" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 48
 Disturbance: Forest</v>
       </c>
-      <c r="K7" s="71" t="e">
+      <c r="K7" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="71" t="e">
+      <c r="L7" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M7" s="71" t="e">
+      <c r="M7" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N7" s="71" t="e">
+      <c r="N7" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N7,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N7, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15200,73 +15193,73 @@
 Plot: 58
 Disturbance: Forest</v>
       </c>
-      <c r="B8" s="71" t="str">
+      <c r="B8" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 61
 Disturbance: Salvaged</v>
       </c>
-      <c r="C8" s="71" t="str">
+      <c r="C8" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 56
 Disturbance: Forest</v>
       </c>
-      <c r="D8" s="71" t="str">
+      <c r="D8" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 59
 Disturbance: Windthrow</v>
       </c>
-      <c r="E8" s="71" t="str">
+      <c r="E8" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 52
 Disturbance: Forest</v>
       </c>
-      <c r="F8" s="71" t="str">
+      <c r="F8" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 59
 Disturbance: Windthrow</v>
       </c>
-      <c r="G8" s="71" t="e">
+      <c r="G8" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="71" t="e">
+      <c r="H8" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="71" t="e">
+      <c r="I8" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="71" t="str">
+      <c r="J8" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 53
 Disturbance: Salvaged</v>
       </c>
-      <c r="K8" s="71" t="e">
+      <c r="K8" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L8" s="71" t="e">
+      <c r="L8" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M8" s="71" t="e">
+      <c r="M8" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N8" s="71" t="e">
+      <c r="N8" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N8,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N8, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15280,67 +15273,67 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="71" t="e">
+      <c r="B9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C9" s="71" t="e">
+      <c r="C9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="71" t="e">
+      <c r="D9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="71" t="e">
+      <c r="E9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="71" t="e">
+      <c r="F9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="71" t="str">
+      <c r="G9" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 54
 Disturbance: Forest</v>
       </c>
-      <c r="H9" s="71" t="str">
+      <c r="H9" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 62
 Disturbance: Forest</v>
       </c>
-      <c r="I9" s="71" t="str">
+      <c r="I9" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 54
 Disturbance: Forest</v>
       </c>
-      <c r="J9" s="71" t="str">
+      <c r="J9" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 64
 Disturbance: Forest</v>
       </c>
-      <c r="K9" s="71" t="e">
+      <c r="K9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L9" s="71" t="e">
+      <c r="L9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M9" s="71" t="e">
+      <c r="M9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N9" s="71" t="e">
+      <c r="N9" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N9,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N9, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15357,73 +15350,73 @@
 Plot: 51
 Disturbance: Windthrow</v>
       </c>
-      <c r="B10" s="71" t="str">
+      <c r="B10" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 53
 Disturbance: Salvaged</v>
       </c>
-      <c r="C10" s="71" t="e">
+      <c r="C10" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="71" t="str">
+      <c r="D10" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 59
 Disturbance: Windthrow</v>
       </c>
-      <c r="E10" s="71" t="str">
+      <c r="E10" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 47
 Disturbance: Windthrow</v>
       </c>
-      <c r="F10" s="71" t="e">
+      <c r="F10" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="71" t="str">
+      <c r="G10" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 59
 Disturbance: Windthrow</v>
       </c>
-      <c r="H10" s="71" t="str">
+      <c r="H10" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 52
 Disturbance: Forest</v>
       </c>
-      <c r="I10" s="71" t="e">
+      <c r="I10" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="71" t="str">
+      <c r="J10" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 41
 Disturbance: Forest</v>
       </c>
-      <c r="K10" s="71" t="e">
+      <c r="K10" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="71" t="e">
+      <c r="L10" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M10" s="71" t="e">
+      <c r="M10" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N10" s="71" t="e">
+      <c r="N10" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N10,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N10, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15440,61 +15433,61 @@
 Plot: 55
 Disturbance: Windthrow</v>
       </c>
-      <c r="B11" s="71" t="str">
+      <c r="B11" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 62
 Disturbance: Forest</v>
       </c>
-      <c r="C11" s="71" t="e">
+      <c r="C11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="71" t="e">
+      <c r="D11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="71" t="e">
+      <c r="E11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="71" t="e">
+      <c r="F11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="71" t="e">
+      <c r="G11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="71" t="e">
+      <c r="H11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="71" t="e">
+      <c r="I11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="71" t="str">
+      <c r="J11" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 55
 Disturbance: Windthrow</v>
       </c>
-      <c r="K11" s="71" t="e">
+      <c r="K11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="71" t="e">
+      <c r="L11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M11" s="71" t="e">
+      <c r="M11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N11" s="71" t="e">
+      <c r="N11" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N11,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N11, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15511,64 +15504,64 @@
 Plot: 52
 Disturbance: Forest</v>
       </c>
-      <c r="B12" s="71" t="str">
+      <c r="B12" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 45
 Disturbance: Forest</v>
       </c>
-      <c r="C12" s="71" t="str">
+      <c r="C12" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 54
 Disturbance: Forest</v>
       </c>
-      <c r="D12" s="71" t="e">
+      <c r="D12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="71" t="e">
+      <c r="E12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="71" t="e">
+      <c r="F12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="71" t="e">
+      <c r="G12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H12" s="71" t="e">
+      <c r="H12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="71" t="e">
+      <c r="I12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="71" t="str">
+      <c r="J12" s="2" t="str">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>Unbaited pitfall trap
 Serviced 2x per month
 Plot: 49
 Disturbance: Salvaged</v>
       </c>
-      <c r="K12" s="71" t="e">
+      <c r="K12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L12" s="71" t="e">
+      <c r="L12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M12" s="71" t="e">
+      <c r="M12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N12" s="71" t="e">
+      <c r="N12" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N12,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N12, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15582,55 +15575,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B13" s="71" t="e">
+      <c r="B13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C13" s="71" t="e">
+      <c r="C13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D13" s="71" t="e">
+      <c r="D13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E13" s="71" t="e">
+      <c r="E13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="71" t="e">
+      <c r="F13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="71" t="e">
+      <c r="G13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="71" t="e">
+      <c r="H13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="71" t="e">
+      <c r="I13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="71" t="e">
+      <c r="J13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="71" t="e">
+      <c r="K13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="71" t="e">
+      <c r="L13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="71" t="e">
+      <c r="M13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="71" t="e">
+      <c r="N13" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N13,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N13, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15644,55 +15637,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B14" s="71" t="e">
+      <c r="B14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="71" t="e">
+      <c r="C14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="71" t="e">
+      <c r="D14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="71" t="e">
+      <c r="E14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="71" t="e">
+      <c r="F14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="71" t="e">
+      <c r="G14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="71" t="e">
+      <c r="H14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="71" t="e">
+      <c r="I14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="71" t="e">
+      <c r="J14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="71" t="e">
+      <c r="K14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="71" t="e">
+      <c r="L14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="71" t="e">
+      <c r="M14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="71" t="e">
+      <c r="N14" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N14,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N14, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15706,55 +15699,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B15" s="71" t="e">
+      <c r="B15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="71" t="e">
+      <c r="C15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="71" t="e">
+      <c r="D15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="71" t="e">
+      <c r="E15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="71" t="e">
+      <c r="F15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="71" t="e">
+      <c r="G15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="71" t="e">
+      <c r="H15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="71" t="e">
+      <c r="I15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="71" t="e">
+      <c r="J15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="71" t="e">
+      <c r="K15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="71" t="e">
+      <c r="L15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="71" t="e">
+      <c r="M15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="71" t="e">
+      <c r="N15" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N15,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N15, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15768,55 +15761,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B16" s="71" t="e">
+      <c r="B16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="71" t="e">
+      <c r="C16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="71" t="e">
+      <c r="D16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="71" t="e">
+      <c r="E16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="71" t="e">
+      <c r="F16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="71" t="e">
+      <c r="G16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="71" t="e">
+      <c r="H16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="71" t="e">
+      <c r="I16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="71" t="e">
+      <c r="J16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="71" t="e">
+      <c r="K16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="71" t="e">
+      <c r="L16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="71" t="e">
+      <c r="M16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="71" t="e">
+      <c r="N16" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N16,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N16, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15830,55 +15823,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B17" s="71" t="e">
+      <c r="B17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="71" t="e">
+      <c r="C17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="71" t="e">
+      <c r="D17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="71" t="e">
+      <c r="E17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="71" t="e">
+      <c r="F17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="71" t="e">
+      <c r="G17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="71" t="e">
+      <c r="H17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="71" t="e">
+      <c r="I17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="71" t="e">
+      <c r="J17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="71" t="e">
+      <c r="K17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="71" t="e">
+      <c r="L17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="71" t="e">
+      <c r="M17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="71" t="e">
+      <c r="N17" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N17,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N17, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15892,55 +15885,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B18" s="71" t="e">
+      <c r="B18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="71" t="e">
+      <c r="C18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="71" t="e">
+      <c r="D18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="71" t="e">
+      <c r="E18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="71" t="e">
+      <c r="F18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="71" t="e">
+      <c r="G18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="71" t="e">
+      <c r="H18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="71" t="e">
+      <c r="I18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="71" t="e">
+      <c r="J18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="71" t="e">
+      <c r="K18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="71" t="e">
+      <c r="L18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="71" t="e">
+      <c r="M18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="71" t="e">
+      <c r="N18" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N18,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N18, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -15954,55 +15947,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B19" s="71" t="e">
+      <c r="B19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="71" t="e">
+      <c r="C19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="71" t="e">
+      <c r="D19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="71" t="e">
+      <c r="E19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="71" t="e">
+      <c r="F19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="71" t="e">
+      <c r="G19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="71" t="e">
+      <c r="H19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="71" t="e">
+      <c r="I19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="71" t="e">
+      <c r="J19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K19" s="71" t="e">
+      <c r="K19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="71" t="e">
+      <c r="L19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M19" s="71" t="e">
+      <c r="M19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N19" s="71" t="e">
+      <c r="N19" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N19,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N19, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16016,55 +16009,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B20" s="71" t="e">
+      <c r="B20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C20" s="71" t="e">
+      <c r="C20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="71" t="e">
+      <c r="D20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="71" t="e">
+      <c r="E20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="71" t="e">
+      <c r="F20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="71" t="e">
+      <c r="G20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="71" t="e">
+      <c r="H20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I20" s="71" t="e">
+      <c r="I20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="71" t="e">
+      <c r="J20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="71" t="e">
+      <c r="K20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="71" t="e">
+      <c r="L20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="71" t="e">
+      <c r="M20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="71" t="e">
+      <c r="N20" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N20,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N20, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16078,55 +16071,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="71" t="e">
+      <c r="B21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C21" s="71" t="e">
+      <c r="C21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="71" t="e">
+      <c r="D21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="71" t="e">
+      <c r="E21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F21" s="71" t="e">
+      <c r="F21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="71" t="e">
+      <c r="G21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H21" s="71" t="e">
+      <c r="H21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I21" s="71" t="e">
+      <c r="I21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="71" t="e">
+      <c r="J21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K21" s="71" t="e">
+      <c r="K21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L21" s="71" t="e">
+      <c r="L21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M21" s="71" t="e">
+      <c r="M21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N21" s="71" t="e">
+      <c r="N21" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N21,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N21, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16140,55 +16133,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B22" s="71" t="e">
+      <c r="B22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C22" s="71" t="e">
+      <c r="C22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="71" t="e">
+      <c r="D22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="71" t="e">
+      <c r="E22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="71" t="e">
+      <c r="F22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="71" t="e">
+      <c r="G22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H22" s="71" t="e">
+      <c r="H22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="71" t="e">
+      <c r="I22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="71" t="e">
+      <c r="J22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K22" s="71" t="e">
+      <c r="K22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="71" t="e">
+      <c r="L22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="71" t="e">
+      <c r="M22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N22" s="71" t="e">
+      <c r="N22" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N22,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N22, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16202,55 +16195,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B23" s="71" t="e">
+      <c r="B23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C23" s="71" t="e">
+      <c r="C23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="71" t="e">
+      <c r="D23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="71" t="e">
+      <c r="E23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F23" s="71" t="e">
+      <c r="F23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="71" t="e">
+      <c r="G23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H23" s="71" t="e">
+      <c r="H23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="71" t="e">
+      <c r="I23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="71" t="e">
+      <c r="J23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K23" s="71" t="e">
+      <c r="K23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="71" t="e">
+      <c r="L23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="71" t="e">
+      <c r="M23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="71" t="e">
+      <c r="N23" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N23,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N23, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16264,55 +16257,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B24" s="71" t="e">
+      <c r="B24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C24" s="71" t="e">
+      <c r="C24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="71" t="e">
+      <c r="D24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="71" t="e">
+      <c r="E24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F24" s="71" t="e">
+      <c r="F24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="71" t="e">
+      <c r="G24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H24" s="71" t="e">
+      <c r="H24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="71" t="e">
+      <c r="I24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="71" t="e">
+      <c r="J24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K24" s="71" t="e">
+      <c r="K24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="71" t="e">
+      <c r="L24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="71" t="e">
+      <c r="M24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="71" t="e">
+      <c r="N24" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N24,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N24, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16326,55 +16319,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B25" s="71" t="e">
+      <c r="B25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C25" s="71" t="e">
+      <c r="C25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="71" t="e">
+      <c r="D25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="71" t="e">
+      <c r="E25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="71" t="e">
+      <c r="F25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="71" t="e">
+      <c r="G25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H25" s="71" t="e">
+      <c r="H25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I25" s="71" t="e">
+      <c r="I25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="71" t="e">
+      <c r="J25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K25" s="71" t="e">
+      <c r="K25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L25" s="71" t="e">
+      <c r="L25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="71" t="e">
+      <c r="M25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="71" t="e">
+      <c r="N25" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N25,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N25, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16388,55 +16381,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B26" s="71" t="e">
+      <c r="B26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C26" s="71" t="e">
+      <c r="C26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D26" s="71" t="e">
+      <c r="D26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="71" t="e">
+      <c r="E26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F26" s="71" t="e">
+      <c r="F26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G26" s="71" t="e">
+      <c r="G26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H26" s="71" t="e">
+      <c r="H26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I26" s="71" t="e">
+      <c r="I26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="71" t="e">
+      <c r="J26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K26" s="71" t="e">
+      <c r="K26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L26" s="71" t="e">
+      <c r="L26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M26" s="71" t="e">
+      <c r="M26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N26" s="71" t="e">
+      <c r="N26" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N26,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N26, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16450,55 +16443,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B27" s="71" t="e">
+      <c r="B27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C27" s="71" t="e">
+      <c r="C27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="71" t="e">
+      <c r="D27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E27" s="71" t="e">
+      <c r="E27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F27" s="71" t="e">
+      <c r="F27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G27" s="71" t="e">
+      <c r="G27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H27" s="71" t="e">
+      <c r="H27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="71" t="e">
+      <c r="I27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="71" t="e">
+      <c r="J27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K27" s="71" t="e">
+      <c r="K27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L27" s="71" t="e">
+      <c r="L27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M27" s="71" t="e">
+      <c r="M27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N27" s="71" t="e">
+      <c r="N27" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N27,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N27, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16512,55 +16505,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B28" s="71" t="e">
+      <c r="B28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C28" s="71" t="e">
+      <c r="C28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="71" t="e">
+      <c r="D28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E28" s="71" t="e">
+      <c r="E28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F28" s="71" t="e">
+      <c r="F28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G28" s="71" t="e">
+      <c r="G28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H28" s="71" t="e">
+      <c r="H28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="71" t="e">
+      <c r="I28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="71" t="e">
+      <c r="J28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K28" s="71" t="e">
+      <c r="K28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="71" t="e">
+      <c r="L28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="71" t="e">
+      <c r="M28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="71" t="e">
+      <c r="N28" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N28,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N28, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16574,55 +16567,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B29" s="71" t="e">
+      <c r="B29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C29" s="71" t="e">
+      <c r="C29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="71" t="e">
+      <c r="D29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E29" s="71" t="e">
+      <c r="E29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F29" s="71" t="e">
+      <c r="F29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="71" t="e">
+      <c r="G29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H29" s="71" t="e">
+      <c r="H29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I29" s="71" t="e">
+      <c r="I29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="71" t="e">
+      <c r="J29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K29" s="71" t="e">
+      <c r="K29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L29" s="71" t="e">
+      <c r="L29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M29" s="71" t="e">
+      <c r="M29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N29" s="71" t="e">
+      <c r="N29" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N29,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N29, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16636,55 +16629,55 @@
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!A30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!A30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="B30" s="71" t="e">
+      <c r="B30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!B30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!B30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="71" t="e">
+      <c r="C30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!C30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!C30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="71" t="e">
+      <c r="D30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!D30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!D30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="E30" s="71" t="e">
+      <c r="E30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!E30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!E30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="71" t="e">
+      <c r="F30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!F30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!F30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="71" t="e">
+      <c r="G30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!G30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!G30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="H30" s="71" t="e">
+      <c r="H30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!H30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!H30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="I30" s="71" t="e">
+      <c r="I30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!I30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!I30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="71" t="e">
+      <c r="J30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!J30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!J30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="K30" s="71" t="e">
+      <c r="K30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!K30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!K30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="L30" s="71" t="e">
+      <c r="L30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!L30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!L30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="M30" s="71" t="e">
+      <c r="M30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!M30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!M30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="N30" s="71" t="e">
+      <c r="N30" s="2" t="e">
         <f>CONCATENATE("Unbaited pitfall trap", CHAR(10), "Serviced 2x per month", CHAR(10), "Plot: ", Plot!N30,CHAR(10), "Disturbance: ", VLOOKUP(Plot!N30, TrapsIntervals!$A$1:$J$193, 10, FALSE))</f>
         <v>#N/A</v>
       </c>
@@ -16791,8 +16784,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="A1:J12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>
@@ -16902,83 +16895,83 @@
 stenostomus  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="2" t="str">
         <f>CONCATENATE(Species!B2, " ", Sex!B2, CHAR(10), Determiner!B2)</f>
         <v>Sphaeroderus 
 stenostomus   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C2" s="71" t="str">
+      <c r="C2" s="2" t="str">
         <f>CONCATENATE(Species!C2, " ", Sex!C2, CHAR(10), Determiner!C2)</f>
         <v>Sphaeroderus 
 stenostomus   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D2" s="71" t="str">
+      <c r="D2" s="2" t="str">
         <f>CONCATENATE(Species!D2, " ", Sex!D2, CHAR(10), Determiner!D2)</f>
         <v>Anisodactylus 
 nigerrimus 
 (Dejean, 1831)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E2" s="71" t="str">
+      <c r="E2" s="2" t="str">
         <f>CONCATENATE(Species!E2, " ", Sex!E2, CHAR(10), Determiner!E2)</f>
         <v>Anisodactylus 
 nigerrimus 
 (Dejean, 1831)   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F2" s="71" t="str">
+      <c r="F2" s="2" t="str">
         <f>CONCATENATE(Species!F2, " ", Sex!F2, CHAR(10), Determiner!F2)</f>
         <v>Anisodactylus 
 nigerrimus 
 (Dejean, 1831)   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G2" s="71" t="str">
+      <c r="G2" s="2" t="str">
         <f>CONCATENATE(Species!G2, " ", Sex!G2, CHAR(10), Determiner!G2)</f>
         <v>Carabus 
 goryi 
 Dejean, 1831  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H2" s="71" t="str">
+      <c r="H2" s="2" t="str">
         <f>CONCATENATE(Species!H2, " ", Sex!H2, CHAR(10), Determiner!H2)</f>
         <v>Carabus 
 goryi 
 Dejean, 1831   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I2" s="71" t="str">
+      <c r="I2" s="2" t="str">
         <f>CONCATENATE(Species!I2, " ", Sex!I2, CHAR(10), Determiner!I2)</f>
         <v>Carabus 
 goryi 
 Dejean, 1831   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J2" s="71" t="str">
+      <c r="J2" s="2" t="str">
         <f>CONCATENATE(Species!J2, " ", Sex!J2, CHAR(10), Determiner!J2)</f>
         <v>Platynus 
 hypolithos 
 (Say, 1823)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K2" s="71" t="str">
+      <c r="K2" s="2" t="str">
         <f>CONCATENATE(Species!K2, " ", Sex!K2, CHAR(10), Determiner!K2)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L2" s="71" t="str">
+      <c r="L2" s="2" t="str">
         <f>CONCATENATE(Species!L2, " ", Sex!L2, CHAR(10), Determiner!L2)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M2" s="71" t="str">
+      <c r="M2" s="2" t="str">
         <f>CONCATENATE(Species!M2, " ", Sex!M2, CHAR(10), Determiner!M2)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N2" s="71" t="str">
+      <c r="N2" s="2" t="str">
         <f>CONCATENATE(Species!N2, " ", Sex!N2, CHAR(10), Determiner!N2)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -16997,77 +16990,77 @@
 (Newman, 1838)  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="2" t="str">
         <f>CONCATENATE(Species!B3, " ", Sex!B3, CHAR(10), Determiner!B3)</f>
         <v>Pterostichus 
 lachrymosus
 (Newman, 1838)  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="2" t="str">
         <f>CONCATENATE(Species!C3, " ", Sex!C3, CHAR(10), Determiner!C3)</f>
         <v>Pterostichus 
 lachrymosus
 (Newman, 1838)  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D3" s="71" t="str">
+      <c r="D3" s="2" t="str">
         <f>CONCATENATE(Species!D3, " ", Sex!D3, CHAR(10), Determiner!D3)</f>
         <v xml:space="preserve">  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E3" s="71" t="str">
+      <c r="E3" s="2" t="str">
         <f>CONCATENATE(Species!E3, " ", Sex!E3, CHAR(10), Determiner!E3)</f>
         <v xml:space="preserve">  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F3" s="71" t="str">
+      <c r="F3" s="2" t="str">
         <f>CONCATENATE(Species!F3, " ", Sex!F3, CHAR(10), Determiner!F3)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G3" s="71" t="str">
+      <c r="G3" s="2" t="str">
         <f>CONCATENATE(Species!G3, " ", Sex!G3, CHAR(10), Determiner!G3)</f>
         <v>Scaphinotus 
 viduus 
 (Dejean, 1826)  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H3" s="71" t="str">
+      <c r="H3" s="2" t="str">
         <f>CONCATENATE(Species!H3, " ", Sex!H3, CHAR(10), Determiner!H3)</f>
         <v>Scaphinotus 
 viduus 
 (Dejean, 1826)  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I3" s="71" t="str">
+      <c r="I3" s="2" t="str">
         <f>CONCATENATE(Species!I3, " ", Sex!I3, CHAR(10), Determiner!I3)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J3" s="71" t="str">
+      <c r="J3" s="2" t="str">
         <f>CONCATENATE(Species!J3, " ", Sex!J3, CHAR(10), Determiner!J3)</f>
         <v>Patrobus 
 longicornis 
 (Say, 1823)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K3" s="71" t="str">
+      <c r="K3" s="2" t="str">
         <f>CONCATENATE(Species!K3, " ", Sex!K3, CHAR(10), Determiner!K3)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L3" s="71" t="str">
+      <c r="L3" s="2" t="str">
         <f>CONCATENATE(Species!L3, " ", Sex!L3, CHAR(10), Determiner!L3)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M3" s="71" t="str">
+      <c r="M3" s="2" t="str">
         <f>CONCATENATE(Species!M3, " ", Sex!M3, CHAR(10), Determiner!M3)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N3" s="71" t="str">
+      <c r="N3" s="2" t="str">
         <f>CONCATENATE(Species!N3, " ", Sex!N3, CHAR(10), Determiner!N3)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17086,79 +17079,79 @@
 (Newman, 1838)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="2" t="str">
         <f>CONCATENATE(Species!B4, " ", Sex!B4, CHAR(10), Determiner!B4)</f>
         <v>Pterostichus 
 lachrymosus
 (Newman, 1838)   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="2" t="str">
         <f>CONCATENATE(Species!C4, " ", Sex!C4, CHAR(10), Determiner!C4)</f>
         <v>Pterostichus 
 lachrymosus
 (Newman, 1838)   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D4" s="71" t="str">
+      <c r="D4" s="2" t="str">
         <f>CONCATENATE(Species!D4, " ", Sex!D4, CHAR(10), Determiner!D4)</f>
         <v>Agonum 
 fidele 
 Casey, 1920  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E4" s="71" t="str">
+      <c r="E4" s="2" t="str">
         <f>CONCATENATE(Species!E4, " ", Sex!E4, CHAR(10), Determiner!E4)</f>
         <v>Agonum 
 fidele 
 Casey, 1920   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="2" t="str">
         <f>CONCATENATE(Species!F4, " ", Sex!F4, CHAR(10), Determiner!F4)</f>
         <v>Agonum 
 fidele 
 Casey, 1920   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G4" s="71" t="str">
+      <c r="G4" s="2" t="str">
         <f>CONCATENATE(Species!G4, " ", Sex!G4, CHAR(10), Determiner!G4)</f>
         <v xml:space="preserve">  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H4" s="71" t="str">
+      <c r="H4" s="2" t="str">
         <f>CONCATENATE(Species!H4, " ", Sex!H4, CHAR(10), Determiner!H4)</f>
         <v xml:space="preserve">   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I4" s="71" t="str">
+      <c r="I4" s="2" t="str">
         <f>CONCATENATE(Species!I4, " ", Sex!I4, CHAR(10), Determiner!I4)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J4" s="71" t="str">
+      <c r="J4" s="2" t="str">
         <f>CONCATENATE(Species!J4, " ", Sex!J4, CHAR(10), Determiner!J4)</f>
         <v>Synuchus 
 impunctatus 
 (Say, 1823)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K4" s="71" t="str">
+      <c r="K4" s="2" t="str">
         <f>CONCATENATE(Species!K4, " ", Sex!K4, CHAR(10), Determiner!K4)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L4" s="71" t="str">
+      <c r="L4" s="2" t="str">
         <f>CONCATENATE(Species!L4, " ", Sex!L4, CHAR(10), Determiner!L4)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M4" s="71" t="str">
+      <c r="M4" s="2" t="str">
         <f>CONCATENATE(Species!M4, " ", Sex!M4, CHAR(10), Determiner!M4)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N4" s="71" t="str">
+      <c r="N4" s="2" t="str">
         <f>CONCATENATE(Species!N4, " ", Sex!N4, CHAR(10), Determiner!N4)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17175,74 +17168,74 @@
         <v xml:space="preserve">  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B5" s="71" t="str">
+      <c r="B5" s="2" t="str">
         <f>CONCATENATE(Species!B5, " ", Sex!B5, CHAR(10), Determiner!B5)</f>
         <v xml:space="preserve">  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C5" s="71" t="str">
+      <c r="C5" s="2" t="str">
         <f>CONCATENATE(Species!C5, " ", Sex!C5, CHAR(10), Determiner!C5)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D5" s="71" t="str">
+      <c r="D5" s="2" t="str">
         <f>CONCATENATE(Species!D5, " ", Sex!D5, CHAR(10), Determiner!D5)</f>
         <v>Platynus 
 tenuicollis 
 (LeConte, 1846)  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E5" s="71" t="str">
+      <c r="E5" s="2" t="str">
         <f>CONCATENATE(Species!E5, " ", Sex!E5, CHAR(10), Determiner!E5)</f>
         <v>Platynus 
 tenuicollis 
 (LeConte, 1846)  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F5" s="71" t="str">
+      <c r="F5" s="2" t="str">
         <f>CONCATENATE(Species!F5, " ", Sex!F5, CHAR(10), Determiner!F5)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G5" s="71" t="str">
+      <c r="G5" s="2" t="str">
         <f>CONCATENATE(Species!G5, " ", Sex!G5, CHAR(10), Determiner!G5)</f>
         <v>Scaphinotus 
 andrewsii  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H5" s="71" t="str">
+      <c r="H5" s="2" t="str">
         <f>CONCATENATE(Species!H5, " ", Sex!H5, CHAR(10), Determiner!H5)</f>
         <v xml:space="preserve">  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I5" s="71" t="str">
+      <c r="I5" s="2" t="str">
         <f>CONCATENATE(Species!I5, " ", Sex!I5, CHAR(10), Determiner!I5)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J5" s="71" t="str">
+      <c r="J5" s="2" t="str">
         <f>CONCATENATE(Species!J5, " ", Sex!J5, CHAR(10), Determiner!J5)</f>
         <v>Anisodactylus 
 melanopus 
 (Haldeman, 1843)  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K5" s="71" t="str">
+      <c r="K5" s="2" t="str">
         <f>CONCATENATE(Species!K5, " ", Sex!K5, CHAR(10), Determiner!K5)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L5" s="71" t="str">
+      <c r="L5" s="2" t="str">
         <f>CONCATENATE(Species!L5, " ", Sex!L5, CHAR(10), Determiner!L5)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M5" s="71" t="str">
+      <c r="M5" s="2" t="str">
         <f>CONCATENATE(Species!M5, " ", Sex!M5, CHAR(10), Determiner!M5)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N5" s="71" t="str">
+      <c r="N5" s="2" t="str">
         <f>CONCATENATE(Species!N5, " ", Sex!N5, CHAR(10), Determiner!N5)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17261,76 +17254,76 @@
 (Say, 1823)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B6" s="71" t="str">
+      <c r="B6" s="2" t="str">
         <f>CONCATENATE(Species!B6, " ", Sex!B6, CHAR(10), Determiner!B6)</f>
         <v>Trichotichnus  
 autumnalis 
 (Say, 1823)   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C6" s="71" t="str">
+      <c r="C6" s="2" t="str">
         <f>CONCATENATE(Species!C6, " ", Sex!C6, CHAR(10), Determiner!C6)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D6" s="71" t="str">
+      <c r="D6" s="2" t="str">
         <f>CONCATENATE(Species!D6, " ", Sex!D6, CHAR(10), Determiner!D6)</f>
         <v>Platynus 
 tenuicollis 
 (LeConte, 1846)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E6" s="71" t="str">
+      <c r="E6" s="2" t="str">
         <f>CONCATENATE(Species!E6, " ", Sex!E6, CHAR(10), Determiner!E6)</f>
         <v>Platynus 
 tenuicollis 
 (LeConte, 1846)   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F6" s="71" t="str">
+      <c r="F6" s="2" t="str">
         <f>CONCATENATE(Species!F6, " ", Sex!F6, CHAR(10), Determiner!F6)</f>
         <v>Platynus 
 tenuicollis 
 (LeConte, 1846)   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G6" s="71" t="str">
+      <c r="G6" s="2" t="str">
         <f>CONCATENATE(Species!G6, " ", Sex!G6, CHAR(10), Determiner!G6)</f>
         <v>Scaphinotus 
 andrewsii  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H6" s="71" t="str">
+      <c r="H6" s="2" t="str">
         <f>CONCATENATE(Species!H6, " ", Sex!H6, CHAR(10), Determiner!H6)</f>
         <v xml:space="preserve">   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I6" s="71" t="str">
+      <c r="I6" s="2" t="str">
         <f>CONCATENATE(Species!I6, " ", Sex!I6, CHAR(10), Determiner!I6)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J6" s="71" t="str">
+      <c r="J6" s="2" t="str">
         <f>CONCATENATE(Species!J6, " ", Sex!J6, CHAR(10), Determiner!J6)</f>
         <v>Tribe Amarini  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K6" s="71" t="str">
+      <c r="K6" s="2" t="str">
         <f>CONCATENATE(Species!K6, " ", Sex!K6, CHAR(10), Determiner!K6)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L6" s="71" t="str">
+      <c r="L6" s="2" t="str">
         <f>CONCATENATE(Species!L6, " ", Sex!L6, CHAR(10), Determiner!L6)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M6" s="71" t="str">
+      <c r="M6" s="2" t="str">
         <f>CONCATENATE(Species!M6, " ", Sex!M6, CHAR(10), Determiner!M6)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N6" s="71" t="str">
+      <c r="N6" s="2" t="str">
         <f>CONCATENATE(Species!N6, " ", Sex!N6, CHAR(10), Determiner!N6)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17349,81 +17342,81 @@
 Dejean, 1829  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="2" t="str">
         <f>CONCATENATE(Species!B7, " ", Sex!B7, CHAR(10), Determiner!B7)</f>
         <v>Harpalus 
 spadiceus 
 Dejean, 1829  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C7" s="71" t="str">
+      <c r="C7" s="2" t="str">
         <f>CONCATENATE(Species!C7, " ", Sex!C7, CHAR(10), Determiner!C7)</f>
         <v>Harpalus 
 spadiceus 
 Dejean, 1829  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D7" s="71" t="str">
+      <c r="D7" s="2" t="str">
         <f>CONCATENATE(Species!D7, " ", Sex!D7, CHAR(10), Determiner!D7)</f>
         <v>Platynus 
 angustatus 
 Dejean, 1828  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E7" s="71" t="str">
+      <c r="E7" s="2" t="str">
         <f>CONCATENATE(Species!E7, " ", Sex!E7, CHAR(10), Determiner!E7)</f>
         <v>Platynus 
 angustatus 
 Dejean, 1828  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F7" s="71" t="str">
+      <c r="F7" s="2" t="str">
         <f>CONCATENATE(Species!F7, " ", Sex!F7, CHAR(10), Determiner!F7)</f>
         <v>Platynus 
 angustatus 
 Dejean, 1828  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G7" s="71" t="str">
+      <c r="G7" s="2" t="str">
         <f>CONCATENATE(Species!G7, " ", Sex!G7, CHAR(10), Determiner!G7)</f>
         <v>Scaphinotus 
 ridingsii  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H7" s="71" t="str">
+      <c r="H7" s="2" t="str">
         <f>CONCATENATE(Species!H7, " ", Sex!H7, CHAR(10), Determiner!H7)</f>
         <v>Scaphinotus 
 ridingsii  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I7" s="71" t="str">
+      <c r="I7" s="2" t="str">
         <f>CONCATENATE(Species!I7, " ", Sex!I7, CHAR(10), Determiner!I7)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J7" s="71" t="str">
+      <c r="J7" s="2" t="str">
         <f>CONCATENATE(Species!J7, " ", Sex!J7, CHAR(10), Determiner!J7)</f>
         <v>Notiophilus 
 aeneus 
 (Herbst, 1806)  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K7" s="71" t="str">
+      <c r="K7" s="2" t="str">
         <f>CONCATENATE(Species!K7, " ", Sex!K7, CHAR(10), Determiner!K7)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L7" s="71" t="str">
+      <c r="L7" s="2" t="str">
         <f>CONCATENATE(Species!L7, " ", Sex!L7, CHAR(10), Determiner!L7)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M7" s="71" t="str">
+      <c r="M7" s="2" t="str">
         <f>CONCATENATE(Species!M7, " ", Sex!M7, CHAR(10), Determiner!M7)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N7" s="71" t="str">
+      <c r="N7" s="2" t="str">
         <f>CONCATENATE(Species!N7, " ", Sex!N7, CHAR(10), Determiner!N7)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17442,79 +17435,79 @@
 Dejean, 1829  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B8" s="71" t="str">
+      <c r="B8" s="2" t="str">
         <f>CONCATENATE(Species!B8, " ", Sex!B8, CHAR(10), Determiner!B8)</f>
         <v>Harpalus 
 spadiceus 
 Dejean, 1829   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C8" s="71" t="str">
+      <c r="C8" s="2" t="str">
         <f>CONCATENATE(Species!C8, " ", Sex!C8, CHAR(10), Determiner!C8)</f>
         <v>Harpalus 
 spadiceus 
 Dejean, 1829   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D8" s="71" t="str">
+      <c r="D8" s="2" t="str">
         <f>CONCATENATE(Species!D8, " ", Sex!D8, CHAR(10), Determiner!D8)</f>
         <v>Platynus 
 angustatus 
 Dejean, 1828  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E8" s="71" t="str">
+      <c r="E8" s="2" t="str">
         <f>CONCATENATE(Species!E8, " ", Sex!E8, CHAR(10), Determiner!E8)</f>
         <v>Platynus 
 angustatus 
 Dejean, 1828   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F8" s="71" t="str">
+      <c r="F8" s="2" t="str">
         <f>CONCATENATE(Species!F8, " ", Sex!F8, CHAR(10), Determiner!F8)</f>
         <v>Platynus 
 angustatus 
 Dejean, 1828   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G8" s="71" t="str">
+      <c r="G8" s="2" t="str">
         <f>CONCATENATE(Species!G8, " ", Sex!G8, CHAR(10), Determiner!G8)</f>
         <v xml:space="preserve">  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H8" s="71" t="str">
+      <c r="H8" s="2" t="str">
         <f>CONCATENATE(Species!H8, " ", Sex!H8, CHAR(10), Determiner!H8)</f>
         <v xml:space="preserve">   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I8" s="71" t="str">
+      <c r="I8" s="2" t="str">
         <f>CONCATENATE(Species!I8, " ", Sex!I8, CHAR(10), Determiner!I8)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J8" s="71" t="str">
+      <c r="J8" s="2" t="str">
         <f>CONCATENATE(Species!J8, " ", Sex!J8, CHAR(10), Determiner!J8)</f>
         <v>Agonoleptus 
 thoracicus 
 (Casey, 1914)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K8" s="71" t="str">
+      <c r="K8" s="2" t="str">
         <f>CONCATENATE(Species!K8, " ", Sex!K8, CHAR(10), Determiner!K8)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L8" s="71" t="str">
+      <c r="L8" s="2" t="str">
         <f>CONCATENATE(Species!L8, " ", Sex!L8, CHAR(10), Determiner!L8)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M8" s="71" t="str">
+      <c r="M8" s="2" t="str">
         <f>CONCATENATE(Species!M8, " ", Sex!M8, CHAR(10), Determiner!M8)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N8" s="71" t="str">
+      <c r="N8" s="2" t="str">
         <f>CONCATENATE(Species!N8, " ", Sex!N8, CHAR(10), Determiner!N8)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17531,73 +17524,73 @@
         <v xml:space="preserve">  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B9" s="71" t="str">
+      <c r="B9" s="2" t="str">
         <f>CONCATENATE(Species!B9, " ", Sex!B9, CHAR(10), Determiner!B9)</f>
         <v xml:space="preserve">  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C9" s="71" t="str">
+      <c r="C9" s="2" t="str">
         <f>CONCATENATE(Species!C9, " ", Sex!C9, CHAR(10), Determiner!C9)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D9" s="71" t="str">
+      <c r="D9" s="2" t="str">
         <f>CONCATENATE(Species!D9, " ", Sex!D9, CHAR(10), Determiner!D9)</f>
         <v xml:space="preserve">  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E9" s="71" t="str">
+      <c r="E9" s="2" t="str">
         <f>CONCATENATE(Species!E9, " ", Sex!E9, CHAR(10), Determiner!E9)</f>
         <v xml:space="preserve">  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F9" s="71" t="str">
+      <c r="F9" s="2" t="str">
         <f>CONCATENATE(Species!F9, " ", Sex!F9, CHAR(10), Determiner!F9)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G9" s="71" t="str">
+      <c r="G9" s="2" t="str">
         <f>CONCATENATE(Species!G9, " ", Sex!G9, CHAR(10), Determiner!G9)</f>
         <v>Scaphinotus 
 imperfectus 
 (Horn, 1861)  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H9" s="71" t="str">
+      <c r="H9" s="2" t="str">
         <f>CONCATENATE(Species!H9, " ", Sex!H9, CHAR(10), Determiner!H9)</f>
         <v>Scaphinotus 
 imperfectus 
 (Horn, 1861)  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I9" s="71" t="str">
+      <c r="I9" s="2" t="str">
         <f>CONCATENATE(Species!I9, " ", Sex!I9, CHAR(10), Determiner!I9)</f>
         <v>Scaphinotus 
 imperfectus 
 (Horn, 1861)  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J9" s="71" t="str">
+      <c r="J9" s="2" t="str">
         <f>CONCATENATE(Species!J9, " ", Sex!J9, CHAR(10), Determiner!J9)</f>
         <v>Amerizus spp.  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K9" s="71" t="str">
+      <c r="K9" s="2" t="str">
         <f>CONCATENATE(Species!K9, " ", Sex!K9, CHAR(10), Determiner!K9)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L9" s="71" t="str">
+      <c r="L9" s="2" t="str">
         <f>CONCATENATE(Species!L9, " ", Sex!L9, CHAR(10), Determiner!L9)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M9" s="71" t="str">
+      <c r="M9" s="2" t="str">
         <f>CONCATENATE(Species!M9, " ", Sex!M9, CHAR(10), Determiner!M9)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N9" s="71" t="str">
+      <c r="N9" s="2" t="str">
         <f>CONCATENATE(Species!N9, " ", Sex!N9, CHAR(10), Determiner!N9)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17616,75 +17609,75 @@
 (Drury, 1773)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B10" s="71" t="str">
+      <c r="B10" s="2" t="str">
         <f>CONCATENATE(Species!B10, " ", Sex!B10, CHAR(10), Determiner!B10)</f>
         <v>Galerita 
 bicolor 
 (Drury, 1773)   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C10" s="71" t="str">
+      <c r="C10" s="2" t="str">
         <f>CONCATENATE(Species!C10, " ", Sex!C10, CHAR(10), Determiner!C10)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D10" s="71" t="str">
+      <c r="D10" s="2" t="str">
         <f>CONCATENATE(Species!D10, " ", Sex!D10, CHAR(10), Determiner!D10)</f>
         <v>Olisthopus spp.  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E10" s="71" t="str">
+      <c r="E10" s="2" t="str">
         <f>CONCATENATE(Species!E10, " ", Sex!E10, CHAR(10), Determiner!E10)</f>
         <v>Olisthopus spp.   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F10" s="71" t="str">
+      <c r="F10" s="2" t="str">
         <f>CONCATENATE(Species!F10, " ", Sex!F10, CHAR(10), Determiner!F10)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G10" s="71" t="str">
+      <c r="G10" s="2" t="str">
         <f>CONCATENATE(Species!G10, " ", Sex!G10, CHAR(10), Determiner!G10)</f>
         <v>Scaphinotus 
 imperfectus 
 (Horn, 1861)  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H10" s="71" t="str">
+      <c r="H10" s="2" t="str">
         <f>CONCATENATE(Species!H10, " ", Sex!H10, CHAR(10), Determiner!H10)</f>
         <v>Scaphinotus 
 imperfectus 
 (Horn, 1861)   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I10" s="71" t="str">
+      <c r="I10" s="2" t="str">
         <f>CONCATENATE(Species!I10, " ", Sex!I10, CHAR(10), Determiner!I10)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J10" s="71" t="str">
+      <c r="J10" s="2" t="str">
         <f>CONCATENATE(Species!J10, " ", Sex!J10, CHAR(10), Determiner!J10)</f>
         <v>Cymindis 
 limbata 
 Dejean, 1831 Unk.sex1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K10" s="71" t="str">
+      <c r="K10" s="2" t="str">
         <f>CONCATENATE(Species!K10, " ", Sex!K10, CHAR(10), Determiner!K10)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L10" s="71" t="str">
+      <c r="L10" s="2" t="str">
         <f>CONCATENATE(Species!L10, " ", Sex!L10, CHAR(10), Determiner!L10)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M10" s="71" t="str">
+      <c r="M10" s="2" t="str">
         <f>CONCATENATE(Species!M10, " ", Sex!M10, CHAR(10), Determiner!M10)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N10" s="71" t="str">
+      <c r="N10" s="2" t="str">
         <f>CONCATENATE(Species!N10, " ", Sex!N10, CHAR(10), Determiner!N10)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17702,70 +17695,70 @@
 canadensis  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B11" s="71" t="str">
+      <c r="B11" s="2" t="str">
         <f>CONCATENATE(Species!B11, " ", Sex!B11, CHAR(10), Determiner!B11)</f>
         <v>Sphaeroderus 
 canadensis  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C11" s="71" t="str">
+      <c r="C11" s="2" t="str">
         <f>CONCATENATE(Species!C11, " ", Sex!C11, CHAR(10), Determiner!C11)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D11" s="71" t="str">
+      <c r="D11" s="2" t="str">
         <f>CONCATENATE(Species!D11, " ", Sex!D11, CHAR(10), Determiner!D11)</f>
         <v xml:space="preserve">  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E11" s="71" t="str">
+      <c r="E11" s="2" t="str">
         <f>CONCATENATE(Species!E11, " ", Sex!E11, CHAR(10), Determiner!E11)</f>
         <v xml:space="preserve">  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F11" s="71" t="str">
+      <c r="F11" s="2" t="str">
         <f>CONCATENATE(Species!F11, " ", Sex!F11, CHAR(10), Determiner!F11)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G11" s="71" t="str">
+      <c r="G11" s="2" t="str">
         <f>CONCATENATE(Species!G11, " ", Sex!G11, CHAR(10), Determiner!G11)</f>
         <v xml:space="preserve">  ♂1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H11" s="71" t="str">
+      <c r="H11" s="2" t="str">
         <f>CONCATENATE(Species!H11, " ", Sex!H11, CHAR(10), Determiner!H11)</f>
         <v xml:space="preserve">  ♂2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I11" s="71" t="str">
+      <c r="I11" s="2" t="str">
         <f>CONCATENATE(Species!I11, " ", Sex!I11, CHAR(10), Determiner!I11)</f>
         <v xml:space="preserve">  ♂3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J11" s="71" t="str">
+      <c r="J11" s="2" t="str">
         <f>CONCATENATE(Species!J11, " ", Sex!J11, CHAR(10), Determiner!J11)</f>
         <v>Cymindis 
 platicollis 
 (Say, 1823) Unk.sex1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K11" s="71" t="str">
+      <c r="K11" s="2" t="str">
         <f>CONCATENATE(Species!K11, " ", Sex!K11, CHAR(10), Determiner!K11)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L11" s="71" t="str">
+      <c r="L11" s="2" t="str">
         <f>CONCATENATE(Species!L11, " ", Sex!L11, CHAR(10), Determiner!L11)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M11" s="71" t="str">
+      <c r="M11" s="2" t="str">
         <f>CONCATENATE(Species!M11, " ", Sex!M11, CHAR(10), Determiner!M11)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N11" s="71" t="str">
+      <c r="N11" s="2" t="str">
         <f>CONCATENATE(Species!N11, " ", Sex!N11, CHAR(10), Determiner!N11)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17783,71 +17776,71 @@
 canadensis  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="B12" s="71" t="str">
+      <c r="B12" s="2" t="str">
         <f>CONCATENATE(Species!B12, " ", Sex!B12, CHAR(10), Determiner!B12)</f>
         <v>Sphaeroderus 
 canadensis   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="C12" s="71" t="str">
+      <c r="C12" s="2" t="str">
         <f>CONCATENATE(Species!C12, " ", Sex!C12, CHAR(10), Determiner!C12)</f>
         <v>Sphaeroderus 
 canadensis   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="D12" s="71" t="str">
+      <c r="D12" s="2" t="str">
         <f>CONCATENATE(Species!D12, " ", Sex!D12, CHAR(10), Determiner!D12)</f>
         <v xml:space="preserve">  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="E12" s="71" t="str">
+      <c r="E12" s="2" t="str">
         <f>CONCATENATE(Species!E12, " ", Sex!E12, CHAR(10), Determiner!E12)</f>
         <v xml:space="preserve">   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="F12" s="71" t="str">
+      <c r="F12" s="2" t="str">
         <f>CONCATENATE(Species!F12, " ", Sex!F12, CHAR(10), Determiner!F12)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="G12" s="71" t="str">
+      <c r="G12" s="2" t="str">
         <f>CONCATENATE(Species!G12, " ", Sex!G12, CHAR(10), Determiner!G12)</f>
         <v xml:space="preserve">  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="H12" s="71" t="str">
+      <c r="H12" s="2" t="str">
         <f>CONCATENATE(Species!H12, " ", Sex!H12, CHAR(10), Determiner!H12)</f>
         <v xml:space="preserve">   ♀2
 det. A.Tayal 2024</v>
       </c>
-      <c r="I12" s="71" t="str">
+      <c r="I12" s="2" t="str">
         <f>CONCATENATE(Species!I12, " ", Sex!I12, CHAR(10), Determiner!I12)</f>
         <v xml:space="preserve">   ♀3
 det. A.Tayal 2024</v>
       </c>
-      <c r="J12" s="71" t="str">
+      <c r="J12" s="2" t="str">
         <f>CONCATENATE(Species!J12, " ", Sex!J12, CHAR(10), Determiner!J12)</f>
         <v>Anisodactylus 
 harrisii 
 LeConte, 1863  ♀1
 det. A.Tayal 2024</v>
       </c>
-      <c r="K12" s="71" t="str">
+      <c r="K12" s="2" t="str">
         <f>CONCATENATE(Species!K12, " ", Sex!K12, CHAR(10), Determiner!K12)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L12" s="71" t="str">
+      <c r="L12" s="2" t="str">
         <f>CONCATENATE(Species!L12, " ", Sex!L12, CHAR(10), Determiner!L12)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M12" s="71" t="str">
+      <c r="M12" s="2" t="str">
         <f>CONCATENATE(Species!M12, " ", Sex!M12, CHAR(10), Determiner!M12)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N12" s="71" t="str">
+      <c r="N12" s="2" t="str">
         <f>CONCATENATE(Species!N12, " ", Sex!N12, CHAR(10), Determiner!N12)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17864,67 +17857,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B13" s="71" t="str">
+      <c r="B13" s="2" t="str">
         <f>CONCATENATE(Species!B13, " ", Sex!B13, CHAR(10), Determiner!B13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C13" s="71" t="str">
+      <c r="C13" s="2" t="str">
         <f>CONCATENATE(Species!C13, " ", Sex!C13, CHAR(10), Determiner!C13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D13" s="71" t="str">
+      <c r="D13" s="2" t="str">
         <f>CONCATENATE(Species!D13, " ", Sex!D13, CHAR(10), Determiner!D13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E13" s="71" t="str">
+      <c r="E13" s="2" t="str">
         <f>CONCATENATE(Species!E13, " ", Sex!E13, CHAR(10), Determiner!E13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F13" s="71" t="str">
+      <c r="F13" s="2" t="str">
         <f>CONCATENATE(Species!F13, " ", Sex!F13, CHAR(10), Determiner!F13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G13" s="71" t="str">
+      <c r="G13" s="2" t="str">
         <f>CONCATENATE(Species!G13, " ", Sex!G13, CHAR(10), Determiner!G13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H13" s="71" t="str">
+      <c r="H13" s="2" t="str">
         <f>CONCATENATE(Species!H13, " ", Sex!H13, CHAR(10), Determiner!H13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I13" s="71" t="str">
+      <c r="I13" s="2" t="str">
         <f>CONCATENATE(Species!I13, " ", Sex!I13, CHAR(10), Determiner!I13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J13" s="71" t="str">
+      <c r="J13" s="2" t="str">
         <f>CONCATENATE(Species!J13, " ", Sex!J13, CHAR(10), Determiner!J13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K13" s="71" t="str">
+      <c r="K13" s="2" t="str">
         <f>CONCATENATE(Species!K13, " ", Sex!K13, CHAR(10), Determiner!K13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L13" s="71" t="str">
+      <c r="L13" s="2" t="str">
         <f>CONCATENATE(Species!L13, " ", Sex!L13, CHAR(10), Determiner!L13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M13" s="71" t="str">
+      <c r="M13" s="2" t="str">
         <f>CONCATENATE(Species!M13, " ", Sex!M13, CHAR(10), Determiner!M13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N13" s="71" t="str">
+      <c r="N13" s="2" t="str">
         <f>CONCATENATE(Species!N13, " ", Sex!N13, CHAR(10), Determiner!N13)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -17941,67 +17934,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B14" s="71" t="str">
+      <c r="B14" s="2" t="str">
         <f>CONCATENATE(Species!B14, " ", Sex!B14, CHAR(10), Determiner!B14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C14" s="71" t="str">
+      <c r="C14" s="2" t="str">
         <f>CONCATENATE(Species!C14, " ", Sex!C14, CHAR(10), Determiner!C14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D14" s="71" t="str">
+      <c r="D14" s="2" t="str">
         <f>CONCATENATE(Species!D14, " ", Sex!D14, CHAR(10), Determiner!D14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E14" s="71" t="str">
+      <c r="E14" s="2" t="str">
         <f>CONCATENATE(Species!E14, " ", Sex!E14, CHAR(10), Determiner!E14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F14" s="71" t="str">
+      <c r="F14" s="2" t="str">
         <f>CONCATENATE(Species!F14, " ", Sex!F14, CHAR(10), Determiner!F14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G14" s="71" t="str">
+      <c r="G14" s="2" t="str">
         <f>CONCATENATE(Species!G14, " ", Sex!G14, CHAR(10), Determiner!G14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H14" s="71" t="str">
+      <c r="H14" s="2" t="str">
         <f>CONCATENATE(Species!H14, " ", Sex!H14, CHAR(10), Determiner!H14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I14" s="71" t="str">
+      <c r="I14" s="2" t="str">
         <f>CONCATENATE(Species!I14, " ", Sex!I14, CHAR(10), Determiner!I14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J14" s="71" t="str">
+      <c r="J14" s="2" t="str">
         <f>CONCATENATE(Species!J14, " ", Sex!J14, CHAR(10), Determiner!J14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K14" s="71" t="str">
+      <c r="K14" s="2" t="str">
         <f>CONCATENATE(Species!K14, " ", Sex!K14, CHAR(10), Determiner!K14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L14" s="71" t="str">
+      <c r="L14" s="2" t="str">
         <f>CONCATENATE(Species!L14, " ", Sex!L14, CHAR(10), Determiner!L14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M14" s="71" t="str">
+      <c r="M14" s="2" t="str">
         <f>CONCATENATE(Species!M14, " ", Sex!M14, CHAR(10), Determiner!M14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N14" s="71" t="str">
+      <c r="N14" s="2" t="str">
         <f>CONCATENATE(Species!N14, " ", Sex!N14, CHAR(10), Determiner!N14)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18018,67 +18011,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B15" s="71" t="str">
+      <c r="B15" s="2" t="str">
         <f>CONCATENATE(Species!B15, " ", Sex!B15, CHAR(10), Determiner!B15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C15" s="71" t="str">
+      <c r="C15" s="2" t="str">
         <f>CONCATENATE(Species!C15, " ", Sex!C15, CHAR(10), Determiner!C15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D15" s="71" t="str">
+      <c r="D15" s="2" t="str">
         <f>CONCATENATE(Species!D15, " ", Sex!D15, CHAR(10), Determiner!D15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E15" s="71" t="str">
+      <c r="E15" s="2" t="str">
         <f>CONCATENATE(Species!E15, " ", Sex!E15, CHAR(10), Determiner!E15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F15" s="71" t="str">
+      <c r="F15" s="2" t="str">
         <f>CONCATENATE(Species!F15, " ", Sex!F15, CHAR(10), Determiner!F15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G15" s="71" t="str">
+      <c r="G15" s="2" t="str">
         <f>CONCATENATE(Species!G15, " ", Sex!G15, CHAR(10), Determiner!G15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H15" s="71" t="str">
+      <c r="H15" s="2" t="str">
         <f>CONCATENATE(Species!H15, " ", Sex!H15, CHAR(10), Determiner!H15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I15" s="71" t="str">
+      <c r="I15" s="2" t="str">
         <f>CONCATENATE(Species!I15, " ", Sex!I15, CHAR(10), Determiner!I15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J15" s="71" t="str">
+      <c r="J15" s="2" t="str">
         <f>CONCATENATE(Species!J15, " ", Sex!J15, CHAR(10), Determiner!J15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K15" s="71" t="str">
+      <c r="K15" s="2" t="str">
         <f>CONCATENATE(Species!K15, " ", Sex!K15, CHAR(10), Determiner!K15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L15" s="71" t="str">
+      <c r="L15" s="2" t="str">
         <f>CONCATENATE(Species!L15, " ", Sex!L15, CHAR(10), Determiner!L15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M15" s="71" t="str">
+      <c r="M15" s="2" t="str">
         <f>CONCATENATE(Species!M15, " ", Sex!M15, CHAR(10), Determiner!M15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N15" s="71" t="str">
+      <c r="N15" s="2" t="str">
         <f>CONCATENATE(Species!N15, " ", Sex!N15, CHAR(10), Determiner!N15)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18095,67 +18088,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B16" s="71" t="str">
+      <c r="B16" s="2" t="str">
         <f>CONCATENATE(Species!B16, " ", Sex!B16, CHAR(10), Determiner!B16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C16" s="71" t="str">
+      <c r="C16" s="2" t="str">
         <f>CONCATENATE(Species!C16, " ", Sex!C16, CHAR(10), Determiner!C16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D16" s="71" t="str">
+      <c r="D16" s="2" t="str">
         <f>CONCATENATE(Species!D16, " ", Sex!D16, CHAR(10), Determiner!D16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E16" s="71" t="str">
+      <c r="E16" s="2" t="str">
         <f>CONCATENATE(Species!E16, " ", Sex!E16, CHAR(10), Determiner!E16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F16" s="71" t="str">
+      <c r="F16" s="2" t="str">
         <f>CONCATENATE(Species!F16, " ", Sex!F16, CHAR(10), Determiner!F16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G16" s="71" t="str">
+      <c r="G16" s="2" t="str">
         <f>CONCATENATE(Species!G16, " ", Sex!G16, CHAR(10), Determiner!G16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H16" s="71" t="str">
+      <c r="H16" s="2" t="str">
         <f>CONCATENATE(Species!H16, " ", Sex!H16, CHAR(10), Determiner!H16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I16" s="71" t="str">
+      <c r="I16" s="2" t="str">
         <f>CONCATENATE(Species!I16, " ", Sex!I16, CHAR(10), Determiner!I16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J16" s="71" t="str">
+      <c r="J16" s="2" t="str">
         <f>CONCATENATE(Species!J16, " ", Sex!J16, CHAR(10), Determiner!J16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K16" s="71" t="str">
+      <c r="K16" s="2" t="str">
         <f>CONCATENATE(Species!K16, " ", Sex!K16, CHAR(10), Determiner!K16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L16" s="71" t="str">
+      <c r="L16" s="2" t="str">
         <f>CONCATENATE(Species!L16, " ", Sex!L16, CHAR(10), Determiner!L16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M16" s="71" t="str">
+      <c r="M16" s="2" t="str">
         <f>CONCATENATE(Species!M16, " ", Sex!M16, CHAR(10), Determiner!M16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N16" s="71" t="str">
+      <c r="N16" s="2" t="str">
         <f>CONCATENATE(Species!N16, " ", Sex!N16, CHAR(10), Determiner!N16)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18172,67 +18165,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B17" s="71" t="str">
+      <c r="B17" s="2" t="str">
         <f>CONCATENATE(Species!B17, " ", Sex!B17, CHAR(10), Determiner!B17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C17" s="71" t="str">
+      <c r="C17" s="2" t="str">
         <f>CONCATENATE(Species!C17, " ", Sex!C17, CHAR(10), Determiner!C17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D17" s="71" t="str">
+      <c r="D17" s="2" t="str">
         <f>CONCATENATE(Species!D17, " ", Sex!D17, CHAR(10), Determiner!D17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E17" s="71" t="str">
+      <c r="E17" s="2" t="str">
         <f>CONCATENATE(Species!E17, " ", Sex!E17, CHAR(10), Determiner!E17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F17" s="71" t="str">
+      <c r="F17" s="2" t="str">
         <f>CONCATENATE(Species!F17, " ", Sex!F17, CHAR(10), Determiner!F17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G17" s="71" t="str">
+      <c r="G17" s="2" t="str">
         <f>CONCATENATE(Species!G17, " ", Sex!G17, CHAR(10), Determiner!G17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H17" s="71" t="str">
+      <c r="H17" s="2" t="str">
         <f>CONCATENATE(Species!H17, " ", Sex!H17, CHAR(10), Determiner!H17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I17" s="71" t="str">
+      <c r="I17" s="2" t="str">
         <f>CONCATENATE(Species!I17, " ", Sex!I17, CHAR(10), Determiner!I17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J17" s="71" t="str">
+      <c r="J17" s="2" t="str">
         <f>CONCATENATE(Species!J17, " ", Sex!J17, CHAR(10), Determiner!J17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K17" s="71" t="str">
+      <c r="K17" s="2" t="str">
         <f>CONCATENATE(Species!K17, " ", Sex!K17, CHAR(10), Determiner!K17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L17" s="71" t="str">
+      <c r="L17" s="2" t="str">
         <f>CONCATENATE(Species!L17, " ", Sex!L17, CHAR(10), Determiner!L17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M17" s="71" t="str">
+      <c r="M17" s="2" t="str">
         <f>CONCATENATE(Species!M17, " ", Sex!M17, CHAR(10), Determiner!M17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N17" s="71" t="str">
+      <c r="N17" s="2" t="str">
         <f>CONCATENATE(Species!N17, " ", Sex!N17, CHAR(10), Determiner!N17)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18249,67 +18242,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B18" s="71" t="str">
+      <c r="B18" s="2" t="str">
         <f>CONCATENATE(Species!B18, " ", Sex!B18, CHAR(10), Determiner!B18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C18" s="71" t="str">
+      <c r="C18" s="2" t="str">
         <f>CONCATENATE(Species!C18, " ", Sex!C18, CHAR(10), Determiner!C18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D18" s="71" t="str">
+      <c r="D18" s="2" t="str">
         <f>CONCATENATE(Species!D18, " ", Sex!D18, CHAR(10), Determiner!D18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E18" s="71" t="str">
+      <c r="E18" s="2" t="str">
         <f>CONCATENATE(Species!E18, " ", Sex!E18, CHAR(10), Determiner!E18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F18" s="71" t="str">
+      <c r="F18" s="2" t="str">
         <f>CONCATENATE(Species!F18, " ", Sex!F18, CHAR(10), Determiner!F18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G18" s="71" t="str">
+      <c r="G18" s="2" t="str">
         <f>CONCATENATE(Species!G18, " ", Sex!G18, CHAR(10), Determiner!G18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H18" s="71" t="str">
+      <c r="H18" s="2" t="str">
         <f>CONCATENATE(Species!H18, " ", Sex!H18, CHAR(10), Determiner!H18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I18" s="71" t="str">
+      <c r="I18" s="2" t="str">
         <f>CONCATENATE(Species!I18, " ", Sex!I18, CHAR(10), Determiner!I18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J18" s="71" t="str">
+      <c r="J18" s="2" t="str">
         <f>CONCATENATE(Species!J18, " ", Sex!J18, CHAR(10), Determiner!J18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K18" s="71" t="str">
+      <c r="K18" s="2" t="str">
         <f>CONCATENATE(Species!K18, " ", Sex!K18, CHAR(10), Determiner!K18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L18" s="71" t="str">
+      <c r="L18" s="2" t="str">
         <f>CONCATENATE(Species!L18, " ", Sex!L18, CHAR(10), Determiner!L18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M18" s="71" t="str">
+      <c r="M18" s="2" t="str">
         <f>CONCATENATE(Species!M18, " ", Sex!M18, CHAR(10), Determiner!M18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N18" s="71" t="str">
+      <c r="N18" s="2" t="str">
         <f>CONCATENATE(Species!N18, " ", Sex!N18, CHAR(10), Determiner!N18)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18326,67 +18319,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B19" s="71" t="str">
+      <c r="B19" s="2" t="str">
         <f>CONCATENATE(Species!B19, " ", Sex!B19, CHAR(10), Determiner!B19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C19" s="71" t="str">
+      <c r="C19" s="2" t="str">
         <f>CONCATENATE(Species!C19, " ", Sex!C19, CHAR(10), Determiner!C19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D19" s="71" t="str">
+      <c r="D19" s="2" t="str">
         <f>CONCATENATE(Species!D19, " ", Sex!D19, CHAR(10), Determiner!D19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E19" s="71" t="str">
+      <c r="E19" s="2" t="str">
         <f>CONCATENATE(Species!E19, " ", Sex!E19, CHAR(10), Determiner!E19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F19" s="71" t="str">
+      <c r="F19" s="2" t="str">
         <f>CONCATENATE(Species!F19, " ", Sex!F19, CHAR(10), Determiner!F19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G19" s="71" t="str">
+      <c r="G19" s="2" t="str">
         <f>CONCATENATE(Species!G19, " ", Sex!G19, CHAR(10), Determiner!G19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H19" s="71" t="str">
+      <c r="H19" s="2" t="str">
         <f>CONCATENATE(Species!H19, " ", Sex!H19, CHAR(10), Determiner!H19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I19" s="71" t="str">
+      <c r="I19" s="2" t="str">
         <f>CONCATENATE(Species!I19, " ", Sex!I19, CHAR(10), Determiner!I19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J19" s="71" t="str">
+      <c r="J19" s="2" t="str">
         <f>CONCATENATE(Species!J19, " ", Sex!J19, CHAR(10), Determiner!J19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K19" s="71" t="str">
+      <c r="K19" s="2" t="str">
         <f>CONCATENATE(Species!K19, " ", Sex!K19, CHAR(10), Determiner!K19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L19" s="71" t="str">
+      <c r="L19" s="2" t="str">
         <f>CONCATENATE(Species!L19, " ", Sex!L19, CHAR(10), Determiner!L19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M19" s="71" t="str">
+      <c r="M19" s="2" t="str">
         <f>CONCATENATE(Species!M19, " ", Sex!M19, CHAR(10), Determiner!M19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N19" s="71" t="str">
+      <c r="N19" s="2" t="str">
         <f>CONCATENATE(Species!N19, " ", Sex!N19, CHAR(10), Determiner!N19)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18403,67 +18396,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B20" s="71" t="str">
+      <c r="B20" s="2" t="str">
         <f>CONCATENATE(Species!B20, " ", Sex!B20, CHAR(10), Determiner!B20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C20" s="71" t="str">
+      <c r="C20" s="2" t="str">
         <f>CONCATENATE(Species!C20, " ", Sex!C20, CHAR(10), Determiner!C20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D20" s="71" t="str">
+      <c r="D20" s="2" t="str">
         <f>CONCATENATE(Species!D20, " ", Sex!D20, CHAR(10), Determiner!D20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E20" s="71" t="str">
+      <c r="E20" s="2" t="str">
         <f>CONCATENATE(Species!E20, " ", Sex!E20, CHAR(10), Determiner!E20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F20" s="71" t="str">
+      <c r="F20" s="2" t="str">
         <f>CONCATENATE(Species!F20, " ", Sex!F20, CHAR(10), Determiner!F20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G20" s="71" t="str">
+      <c r="G20" s="2" t="str">
         <f>CONCATENATE(Species!G20, " ", Sex!G20, CHAR(10), Determiner!G20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H20" s="71" t="str">
+      <c r="H20" s="2" t="str">
         <f>CONCATENATE(Species!H20, " ", Sex!H20, CHAR(10), Determiner!H20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I20" s="71" t="str">
+      <c r="I20" s="2" t="str">
         <f>CONCATENATE(Species!I20, " ", Sex!I20, CHAR(10), Determiner!I20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J20" s="71" t="str">
+      <c r="J20" s="2" t="str">
         <f>CONCATENATE(Species!J20, " ", Sex!J20, CHAR(10), Determiner!J20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K20" s="71" t="str">
+      <c r="K20" s="2" t="str">
         <f>CONCATENATE(Species!K20, " ", Sex!K20, CHAR(10), Determiner!K20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L20" s="71" t="str">
+      <c r="L20" s="2" t="str">
         <f>CONCATENATE(Species!L20, " ", Sex!L20, CHAR(10), Determiner!L20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M20" s="71" t="str">
+      <c r="M20" s="2" t="str">
         <f>CONCATENATE(Species!M20, " ", Sex!M20, CHAR(10), Determiner!M20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N20" s="71" t="str">
+      <c r="N20" s="2" t="str">
         <f>CONCATENATE(Species!N20, " ", Sex!N20, CHAR(10), Determiner!N20)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18480,67 +18473,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B21" s="71" t="str">
+      <c r="B21" s="2" t="str">
         <f>CONCATENATE(Species!B21, " ", Sex!B21, CHAR(10), Determiner!B21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C21" s="71" t="str">
+      <c r="C21" s="2" t="str">
         <f>CONCATENATE(Species!C21, " ", Sex!C21, CHAR(10), Determiner!C21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D21" s="71" t="str">
+      <c r="D21" s="2" t="str">
         <f>CONCATENATE(Species!D21, " ", Sex!D21, CHAR(10), Determiner!D21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E21" s="71" t="str">
+      <c r="E21" s="2" t="str">
         <f>CONCATENATE(Species!E21, " ", Sex!E21, CHAR(10), Determiner!E21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F21" s="71" t="str">
+      <c r="F21" s="2" t="str">
         <f>CONCATENATE(Species!F21, " ", Sex!F21, CHAR(10), Determiner!F21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G21" s="71" t="str">
+      <c r="G21" s="2" t="str">
         <f>CONCATENATE(Species!G21, " ", Sex!G21, CHAR(10), Determiner!G21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H21" s="71" t="str">
+      <c r="H21" s="2" t="str">
         <f>CONCATENATE(Species!H21, " ", Sex!H21, CHAR(10), Determiner!H21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I21" s="71" t="str">
+      <c r="I21" s="2" t="str">
         <f>CONCATENATE(Species!I21, " ", Sex!I21, CHAR(10), Determiner!I21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J21" s="71" t="str">
+      <c r="J21" s="2" t="str">
         <f>CONCATENATE(Species!J21, " ", Sex!J21, CHAR(10), Determiner!J21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K21" s="71" t="str">
+      <c r="K21" s="2" t="str">
         <f>CONCATENATE(Species!K21, " ", Sex!K21, CHAR(10), Determiner!K21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L21" s="71" t="str">
+      <c r="L21" s="2" t="str">
         <f>CONCATENATE(Species!L21, " ", Sex!L21, CHAR(10), Determiner!L21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M21" s="71" t="str">
+      <c r="M21" s="2" t="str">
         <f>CONCATENATE(Species!M21, " ", Sex!M21, CHAR(10), Determiner!M21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N21" s="71" t="str">
+      <c r="N21" s="2" t="str">
         <f>CONCATENATE(Species!N21, " ", Sex!N21, CHAR(10), Determiner!N21)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18557,67 +18550,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B22" s="71" t="str">
+      <c r="B22" s="2" t="str">
         <f>CONCATENATE(Species!B22, " ", Sex!B22, CHAR(10), Determiner!B22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C22" s="71" t="str">
+      <c r="C22" s="2" t="str">
         <f>CONCATENATE(Species!C22, " ", Sex!C22, CHAR(10), Determiner!C22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D22" s="71" t="str">
+      <c r="D22" s="2" t="str">
         <f>CONCATENATE(Species!D22, " ", Sex!D22, CHAR(10), Determiner!D22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E22" s="71" t="str">
+      <c r="E22" s="2" t="str">
         <f>CONCATENATE(Species!E22, " ", Sex!E22, CHAR(10), Determiner!E22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F22" s="71" t="str">
+      <c r="F22" s="2" t="str">
         <f>CONCATENATE(Species!F22, " ", Sex!F22, CHAR(10), Determiner!F22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G22" s="71" t="str">
+      <c r="G22" s="2" t="str">
         <f>CONCATENATE(Species!G22, " ", Sex!G22, CHAR(10), Determiner!G22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H22" s="71" t="str">
+      <c r="H22" s="2" t="str">
         <f>CONCATENATE(Species!H22, " ", Sex!H22, CHAR(10), Determiner!H22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I22" s="71" t="str">
+      <c r="I22" s="2" t="str">
         <f>CONCATENATE(Species!I22, " ", Sex!I22, CHAR(10), Determiner!I22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J22" s="71" t="str">
+      <c r="J22" s="2" t="str">
         <f>CONCATENATE(Species!J22, " ", Sex!J22, CHAR(10), Determiner!J22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K22" s="71" t="str">
+      <c r="K22" s="2" t="str">
         <f>CONCATENATE(Species!K22, " ", Sex!K22, CHAR(10), Determiner!K22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L22" s="71" t="str">
+      <c r="L22" s="2" t="str">
         <f>CONCATENATE(Species!L22, " ", Sex!L22, CHAR(10), Determiner!L22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M22" s="71" t="str">
+      <c r="M22" s="2" t="str">
         <f>CONCATENATE(Species!M22, " ", Sex!M22, CHAR(10), Determiner!M22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N22" s="71" t="str">
+      <c r="N22" s="2" t="str">
         <f>CONCATENATE(Species!N22, " ", Sex!N22, CHAR(10), Determiner!N22)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18634,67 +18627,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B23" s="71" t="str">
+      <c r="B23" s="2" t="str">
         <f>CONCATENATE(Species!B23, " ", Sex!B23, CHAR(10), Determiner!B23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C23" s="71" t="str">
+      <c r="C23" s="2" t="str">
         <f>CONCATENATE(Species!C23, " ", Sex!C23, CHAR(10), Determiner!C23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D23" s="71" t="str">
+      <c r="D23" s="2" t="str">
         <f>CONCATENATE(Species!D23, " ", Sex!D23, CHAR(10), Determiner!D23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E23" s="71" t="str">
+      <c r="E23" s="2" t="str">
         <f>CONCATENATE(Species!E23, " ", Sex!E23, CHAR(10), Determiner!E23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F23" s="71" t="str">
+      <c r="F23" s="2" t="str">
         <f>CONCATENATE(Species!F23, " ", Sex!F23, CHAR(10), Determiner!F23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G23" s="71" t="str">
+      <c r="G23" s="2" t="str">
         <f>CONCATENATE(Species!G23, " ", Sex!G23, CHAR(10), Determiner!G23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H23" s="71" t="str">
+      <c r="H23" s="2" t="str">
         <f>CONCATENATE(Species!H23, " ", Sex!H23, CHAR(10), Determiner!H23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I23" s="71" t="str">
+      <c r="I23" s="2" t="str">
         <f>CONCATENATE(Species!I23, " ", Sex!I23, CHAR(10), Determiner!I23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J23" s="71" t="str">
+      <c r="J23" s="2" t="str">
         <f>CONCATENATE(Species!J23, " ", Sex!J23, CHAR(10), Determiner!J23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K23" s="71" t="str">
+      <c r="K23" s="2" t="str">
         <f>CONCATENATE(Species!K23, " ", Sex!K23, CHAR(10), Determiner!K23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L23" s="71" t="str">
+      <c r="L23" s="2" t="str">
         <f>CONCATENATE(Species!L23, " ", Sex!L23, CHAR(10), Determiner!L23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M23" s="71" t="str">
+      <c r="M23" s="2" t="str">
         <f>CONCATENATE(Species!M23, " ", Sex!M23, CHAR(10), Determiner!M23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N23" s="71" t="str">
+      <c r="N23" s="2" t="str">
         <f>CONCATENATE(Species!N23, " ", Sex!N23, CHAR(10), Determiner!N23)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18711,67 +18704,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B24" s="71" t="str">
+      <c r="B24" s="2" t="str">
         <f>CONCATENATE(Species!B24, " ", Sex!B24, CHAR(10), Determiner!B24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C24" s="71" t="str">
+      <c r="C24" s="2" t="str">
         <f>CONCATENATE(Species!C24, " ", Sex!C24, CHAR(10), Determiner!C24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D24" s="71" t="str">
+      <c r="D24" s="2" t="str">
         <f>CONCATENATE(Species!D24, " ", Sex!D24, CHAR(10), Determiner!D24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E24" s="71" t="str">
+      <c r="E24" s="2" t="str">
         <f>CONCATENATE(Species!E24, " ", Sex!E24, CHAR(10), Determiner!E24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F24" s="71" t="str">
+      <c r="F24" s="2" t="str">
         <f>CONCATENATE(Species!F24, " ", Sex!F24, CHAR(10), Determiner!F24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G24" s="71" t="str">
+      <c r="G24" s="2" t="str">
         <f>CONCATENATE(Species!G24, " ", Sex!G24, CHAR(10), Determiner!G24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H24" s="71" t="str">
+      <c r="H24" s="2" t="str">
         <f>CONCATENATE(Species!H24, " ", Sex!H24, CHAR(10), Determiner!H24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I24" s="71" t="str">
+      <c r="I24" s="2" t="str">
         <f>CONCATENATE(Species!I24, " ", Sex!I24, CHAR(10), Determiner!I24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J24" s="71" t="str">
+      <c r="J24" s="2" t="str">
         <f>CONCATENATE(Species!J24, " ", Sex!J24, CHAR(10), Determiner!J24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K24" s="71" t="str">
+      <c r="K24" s="2" t="str">
         <f>CONCATENATE(Species!K24, " ", Sex!K24, CHAR(10), Determiner!K24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L24" s="71" t="str">
+      <c r="L24" s="2" t="str">
         <f>CONCATENATE(Species!L24, " ", Sex!L24, CHAR(10), Determiner!L24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M24" s="71" t="str">
+      <c r="M24" s="2" t="str">
         <f>CONCATENATE(Species!M24, " ", Sex!M24, CHAR(10), Determiner!M24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N24" s="71" t="str">
+      <c r="N24" s="2" t="str">
         <f>CONCATENATE(Species!N24, " ", Sex!N24, CHAR(10), Determiner!N24)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18788,67 +18781,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B25" s="71" t="str">
+      <c r="B25" s="2" t="str">
         <f>CONCATENATE(Species!B25, " ", Sex!B25, CHAR(10), Determiner!B25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C25" s="71" t="str">
+      <c r="C25" s="2" t="str">
         <f>CONCATENATE(Species!C25, " ", Sex!C25, CHAR(10), Determiner!C25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D25" s="71" t="str">
+      <c r="D25" s="2" t="str">
         <f>CONCATENATE(Species!D25, " ", Sex!D25, CHAR(10), Determiner!D25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E25" s="71" t="str">
+      <c r="E25" s="2" t="str">
         <f>CONCATENATE(Species!E25, " ", Sex!E25, CHAR(10), Determiner!E25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F25" s="71" t="str">
+      <c r="F25" s="2" t="str">
         <f>CONCATENATE(Species!F25, " ", Sex!F25, CHAR(10), Determiner!F25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G25" s="71" t="str">
+      <c r="G25" s="2" t="str">
         <f>CONCATENATE(Species!G25, " ", Sex!G25, CHAR(10), Determiner!G25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H25" s="71" t="str">
+      <c r="H25" s="2" t="str">
         <f>CONCATENATE(Species!H25, " ", Sex!H25, CHAR(10), Determiner!H25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I25" s="71" t="str">
+      <c r="I25" s="2" t="str">
         <f>CONCATENATE(Species!I25, " ", Sex!I25, CHAR(10), Determiner!I25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J25" s="71" t="str">
+      <c r="J25" s="2" t="str">
         <f>CONCATENATE(Species!J25, " ", Sex!J25, CHAR(10), Determiner!J25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K25" s="71" t="str">
+      <c r="K25" s="2" t="str">
         <f>CONCATENATE(Species!K25, " ", Sex!K25, CHAR(10), Determiner!K25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L25" s="71" t="str">
+      <c r="L25" s="2" t="str">
         <f>CONCATENATE(Species!L25, " ", Sex!L25, CHAR(10), Determiner!L25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M25" s="71" t="str">
+      <c r="M25" s="2" t="str">
         <f>CONCATENATE(Species!M25, " ", Sex!M25, CHAR(10), Determiner!M25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N25" s="71" t="str">
+      <c r="N25" s="2" t="str">
         <f>CONCATENATE(Species!N25, " ", Sex!N25, CHAR(10), Determiner!N25)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18865,67 +18858,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B26" s="71" t="str">
+      <c r="B26" s="2" t="str">
         <f>CONCATENATE(Species!B26, " ", Sex!B26, CHAR(10), Determiner!B26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C26" s="71" t="str">
+      <c r="C26" s="2" t="str">
         <f>CONCATENATE(Species!C26, " ", Sex!C26, CHAR(10), Determiner!C26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D26" s="71" t="str">
+      <c r="D26" s="2" t="str">
         <f>CONCATENATE(Species!D26, " ", Sex!D26, CHAR(10), Determiner!D26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E26" s="71" t="str">
+      <c r="E26" s="2" t="str">
         <f>CONCATENATE(Species!E26, " ", Sex!E26, CHAR(10), Determiner!E26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F26" s="71" t="str">
+      <c r="F26" s="2" t="str">
         <f>CONCATENATE(Species!F26, " ", Sex!F26, CHAR(10), Determiner!F26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G26" s="71" t="str">
+      <c r="G26" s="2" t="str">
         <f>CONCATENATE(Species!G26, " ", Sex!G26, CHAR(10), Determiner!G26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H26" s="71" t="str">
+      <c r="H26" s="2" t="str">
         <f>CONCATENATE(Species!H26, " ", Sex!H26, CHAR(10), Determiner!H26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I26" s="71" t="str">
+      <c r="I26" s="2" t="str">
         <f>CONCATENATE(Species!I26, " ", Sex!I26, CHAR(10), Determiner!I26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J26" s="71" t="str">
+      <c r="J26" s="2" t="str">
         <f>CONCATENATE(Species!J26, " ", Sex!J26, CHAR(10), Determiner!J26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K26" s="71" t="str">
+      <c r="K26" s="2" t="str">
         <f>CONCATENATE(Species!K26, " ", Sex!K26, CHAR(10), Determiner!K26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L26" s="71" t="str">
+      <c r="L26" s="2" t="str">
         <f>CONCATENATE(Species!L26, " ", Sex!L26, CHAR(10), Determiner!L26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M26" s="71" t="str">
+      <c r="M26" s="2" t="str">
         <f>CONCATENATE(Species!M26, " ", Sex!M26, CHAR(10), Determiner!M26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N26" s="71" t="str">
+      <c r="N26" s="2" t="str">
         <f>CONCATENATE(Species!N26, " ", Sex!N26, CHAR(10), Determiner!N26)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -18942,67 +18935,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B27" s="71" t="str">
+      <c r="B27" s="2" t="str">
         <f>CONCATENATE(Species!B27, " ", Sex!B27, CHAR(10), Determiner!B27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C27" s="71" t="str">
+      <c r="C27" s="2" t="str">
         <f>CONCATENATE(Species!C27, " ", Sex!C27, CHAR(10), Determiner!C27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D27" s="71" t="str">
+      <c r="D27" s="2" t="str">
         <f>CONCATENATE(Species!D27, " ", Sex!D27, CHAR(10), Determiner!D27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E27" s="71" t="str">
+      <c r="E27" s="2" t="str">
         <f>CONCATENATE(Species!E27, " ", Sex!E27, CHAR(10), Determiner!E27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F27" s="71" t="str">
+      <c r="F27" s="2" t="str">
         <f>CONCATENATE(Species!F27, " ", Sex!F27, CHAR(10), Determiner!F27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G27" s="71" t="str">
+      <c r="G27" s="2" t="str">
         <f>CONCATENATE(Species!G27, " ", Sex!G27, CHAR(10), Determiner!G27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H27" s="71" t="str">
+      <c r="H27" s="2" t="str">
         <f>CONCATENATE(Species!H27, " ", Sex!H27, CHAR(10), Determiner!H27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I27" s="71" t="str">
+      <c r="I27" s="2" t="str">
         <f>CONCATENATE(Species!I27, " ", Sex!I27, CHAR(10), Determiner!I27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J27" s="71" t="str">
+      <c r="J27" s="2" t="str">
         <f>CONCATENATE(Species!J27, " ", Sex!J27, CHAR(10), Determiner!J27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K27" s="71" t="str">
+      <c r="K27" s="2" t="str">
         <f>CONCATENATE(Species!K27, " ", Sex!K27, CHAR(10), Determiner!K27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L27" s="71" t="str">
+      <c r="L27" s="2" t="str">
         <f>CONCATENATE(Species!L27, " ", Sex!L27, CHAR(10), Determiner!L27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M27" s="71" t="str">
+      <c r="M27" s="2" t="str">
         <f>CONCATENATE(Species!M27, " ", Sex!M27, CHAR(10), Determiner!M27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N27" s="71" t="str">
+      <c r="N27" s="2" t="str">
         <f>CONCATENATE(Species!N27, " ", Sex!N27, CHAR(10), Determiner!N27)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -19019,67 +19012,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B28" s="71" t="str">
+      <c r="B28" s="2" t="str">
         <f>CONCATENATE(Species!B28, " ", Sex!B28, CHAR(10), Determiner!B28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C28" s="71" t="str">
+      <c r="C28" s="2" t="str">
         <f>CONCATENATE(Species!C28, " ", Sex!C28, CHAR(10), Determiner!C28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D28" s="71" t="str">
+      <c r="D28" s="2" t="str">
         <f>CONCATENATE(Species!D28, " ", Sex!D28, CHAR(10), Determiner!D28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E28" s="71" t="str">
+      <c r="E28" s="2" t="str">
         <f>CONCATENATE(Species!E28, " ", Sex!E28, CHAR(10), Determiner!E28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F28" s="71" t="str">
+      <c r="F28" s="2" t="str">
         <f>CONCATENATE(Species!F28, " ", Sex!F28, CHAR(10), Determiner!F28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G28" s="71" t="str">
+      <c r="G28" s="2" t="str">
         <f>CONCATENATE(Species!G28, " ", Sex!G28, CHAR(10), Determiner!G28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H28" s="71" t="str">
+      <c r="H28" s="2" t="str">
         <f>CONCATENATE(Species!H28, " ", Sex!H28, CHAR(10), Determiner!H28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I28" s="71" t="str">
+      <c r="I28" s="2" t="str">
         <f>CONCATENATE(Species!I28, " ", Sex!I28, CHAR(10), Determiner!I28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J28" s="71" t="str">
+      <c r="J28" s="2" t="str">
         <f>CONCATENATE(Species!J28, " ", Sex!J28, CHAR(10), Determiner!J28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K28" s="71" t="str">
+      <c r="K28" s="2" t="str">
         <f>CONCATENATE(Species!K28, " ", Sex!K28, CHAR(10), Determiner!K28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L28" s="71" t="str">
+      <c r="L28" s="2" t="str">
         <f>CONCATENATE(Species!L28, " ", Sex!L28, CHAR(10), Determiner!L28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M28" s="71" t="str">
+      <c r="M28" s="2" t="str">
         <f>CONCATENATE(Species!M28, " ", Sex!M28, CHAR(10), Determiner!M28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N28" s="71" t="str">
+      <c r="N28" s="2" t="str">
         <f>CONCATENATE(Species!N28, " ", Sex!N28, CHAR(10), Determiner!N28)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -19096,67 +19089,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B29" s="71" t="str">
+      <c r="B29" s="2" t="str">
         <f>CONCATENATE(Species!B29, " ", Sex!B29, CHAR(10), Determiner!B29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C29" s="71" t="str">
+      <c r="C29" s="2" t="str">
         <f>CONCATENATE(Species!C29, " ", Sex!C29, CHAR(10), Determiner!C29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D29" s="71" t="str">
+      <c r="D29" s="2" t="str">
         <f>CONCATENATE(Species!D29, " ", Sex!D29, CHAR(10), Determiner!D29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E29" s="71" t="str">
+      <c r="E29" s="2" t="str">
         <f>CONCATENATE(Species!E29, " ", Sex!E29, CHAR(10), Determiner!E29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F29" s="71" t="str">
+      <c r="F29" s="2" t="str">
         <f>CONCATENATE(Species!F29, " ", Sex!F29, CHAR(10), Determiner!F29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G29" s="71" t="str">
+      <c r="G29" s="2" t="str">
         <f>CONCATENATE(Species!G29, " ", Sex!G29, CHAR(10), Determiner!G29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H29" s="71" t="str">
+      <c r="H29" s="2" t="str">
         <f>CONCATENATE(Species!H29, " ", Sex!H29, CHAR(10), Determiner!H29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I29" s="71" t="str">
+      <c r="I29" s="2" t="str">
         <f>CONCATENATE(Species!I29, " ", Sex!I29, CHAR(10), Determiner!I29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J29" s="71" t="str">
+      <c r="J29" s="2" t="str">
         <f>CONCATENATE(Species!J29, " ", Sex!J29, CHAR(10), Determiner!J29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K29" s="71" t="str">
+      <c r="K29" s="2" t="str">
         <f>CONCATENATE(Species!K29, " ", Sex!K29, CHAR(10), Determiner!K29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L29" s="71" t="str">
+      <c r="L29" s="2" t="str">
         <f>CONCATENATE(Species!L29, " ", Sex!L29, CHAR(10), Determiner!L29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M29" s="71" t="str">
+      <c r="M29" s="2" t="str">
         <f>CONCATENATE(Species!M29, " ", Sex!M29, CHAR(10), Determiner!M29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N29" s="71" t="str">
+      <c r="N29" s="2" t="str">
         <f>CONCATENATE(Species!N29, " ", Sex!N29, CHAR(10), Determiner!N29)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -19173,67 +19166,67 @@
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="B30" s="71" t="str">
+      <c r="B30" s="2" t="str">
         <f>CONCATENATE(Species!B30, " ", Sex!B30, CHAR(10), Determiner!B30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="C30" s="71" t="str">
+      <c r="C30" s="2" t="str">
         <f>CONCATENATE(Species!C30, " ", Sex!C30, CHAR(10), Determiner!C30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="D30" s="71" t="str">
+      <c r="D30" s="2" t="str">
         <f>CONCATENATE(Species!D30, " ", Sex!D30, CHAR(10), Determiner!D30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="E30" s="71" t="str">
+      <c r="E30" s="2" t="str">
         <f>CONCATENATE(Species!E30, " ", Sex!E30, CHAR(10), Determiner!E30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="F30" s="71" t="str">
+      <c r="F30" s="2" t="str">
         <f>CONCATENATE(Species!F30, " ", Sex!F30, CHAR(10), Determiner!F30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="G30" s="71" t="str">
+      <c r="G30" s="2" t="str">
         <f>CONCATENATE(Species!G30, " ", Sex!G30, CHAR(10), Determiner!G30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="H30" s="71" t="str">
+      <c r="H30" s="2" t="str">
         <f>CONCATENATE(Species!H30, " ", Sex!H30, CHAR(10), Determiner!H30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="I30" s="71" t="str">
+      <c r="I30" s="2" t="str">
         <f>CONCATENATE(Species!I30, " ", Sex!I30, CHAR(10), Determiner!I30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="J30" s="71" t="str">
+      <c r="J30" s="2" t="str">
         <f>CONCATENATE(Species!J30, " ", Sex!J30, CHAR(10), Determiner!J30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="K30" s="71" t="str">
+      <c r="K30" s="2" t="str">
         <f>CONCATENATE(Species!K30, " ", Sex!K30, CHAR(10), Determiner!K30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="L30" s="71" t="str">
+      <c r="L30" s="2" t="str">
         <f>CONCATENATE(Species!L30, " ", Sex!L30, CHAR(10), Determiner!L30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="M30" s="71" t="str">
+      <c r="M30" s="2" t="str">
         <f>CONCATENATE(Species!M30, " ", Sex!M30, CHAR(10), Determiner!M30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
       </c>
-      <c r="N30" s="71" t="str">
+      <c r="N30" s="2" t="str">
         <f>CONCATENATE(Species!N30, " ", Sex!N30, CHAR(10), Determiner!N30)</f>
         <v xml:space="preserve"> 
 det. A.Tayal 2024</v>
@@ -20085,9 +20078,7 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13"/>
   <cols>
@@ -20895,9 +20886,7 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="5.5"/>
   <cols>
@@ -22436,7 +22425,7 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
